--- a/data_exports/enrollments_raw.xlsx
+++ b/data_exports/enrollments_raw.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA72"/>
+  <dimension ref="A1:AA58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,13 +572,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>45978749</v>
+        <v>46580555</v>
       </c>
       <c r="B2" t="n">
-        <v>5303487</v>
+        <v>5461105</v>
       </c>
       <c r="C2" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -587,19 +587,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-04-16T11:42:36Z</t>
+          <t>2025-06-17T19:24:36Z</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-04-16T11:42:36Z</t>
+          <t>2025-06-17T19:24:36Z</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K2" t="n">
         <v>86643</v>
@@ -622,16 +622,16 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-06-22T20:47:11Z</t>
+          <t>2025-07-02T13:47:43Z</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>6571</v>
+        <v>2536</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5303487', 'current_grade': None, 'current_score': 89.79, 'final_grade': None, 'final_score': 33.49, 'unposted_current_score': 89.79, 'unposted_current_grade': None, 'unposted_final_score': 33.49, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5461105', 'current_grade': None, 'current_score': 66.67, 'final_grade': None, 'final_score': 2.22, 'unposted_current_score': 66.67, 'unposted_current_grade': None, 'unposted_final_score': 2.22, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -641,41 +641,41 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>U18917765</t>
+          <t>U74421188</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5303487</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5461105</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>{'id': 5303487, 'name': 'Emery Adams', 'created_at': '2023-12-04T13:04:34-05:00', 'sortable_name': 'Adams, Emery', 'short_name': 'Emery Adams', 'sis_user_id': 'U18917765', 'integration_id': None, 'login_id': 'emeryadams'}</t>
+          <t>{'id': 5461105, 'name': 'Russell Albright-Maragoto', 'created_at': '2024-12-04T17:05:13-05:00', 'sortable_name': 'Albright-Maragoto, Russell', 'short_name': 'Russell Albright-Maragoto', 'sis_user_id': 'U74421188', 'integration_id': None, 'login_id': 'albrightmaragoto'}</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>45970535</v>
+        <v>46305797</v>
       </c>
       <c r="B3" t="n">
-        <v>5029701</v>
+        <v>5430421</v>
       </c>
       <c r="C3" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -684,19 +684,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-04-15T23:26:14Z</t>
+          <t>2025-05-13T05:47:16Z</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-04-15T23:26:14Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K3" t="n">
         <v>86643</v>
@@ -719,16 +719,16 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-06-23T10:49:27Z</t>
+          <t>2025-07-03T18:36:47Z</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>18100</v>
+        <v>8565</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5029701', 'current_grade': None, 'current_score': 90.26, 'final_grade': None, 'final_score': 37.45, 'unposted_current_score': 90.26, 'unposted_current_grade': None, 'unposted_final_score': 37.45, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5430421', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 7.5, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 7.5, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -738,41 +738,41 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>U45189711</t>
+          <t>U44146712</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5029701</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5430421</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>{'id': 5029701, 'name': 'Samantha Adjidersky', 'created_at': '2022-10-20T17:04:31-04:00', 'sortable_name': 'Adjidersky, Samantha', 'short_name': 'Samantha Adjidersky', 'sis_user_id': 'U45189711', 'integration_id': None, 'login_id': 'sadjidersky'}</t>
+          <t>{'id': 5430421, 'name': 'Max Barta', 'created_at': '2024-10-30T13:05:37-04:00', 'sortable_name': 'Barta, Max', 'short_name': 'Max Barta', 'sis_user_id': 'U44146712', 'integration_id': None, 'login_id': 'barta1'}</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>45988991</v>
+        <v>46304785</v>
       </c>
       <c r="B4" t="n">
-        <v>5211091</v>
+        <v>5463183</v>
       </c>
       <c r="C4" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,19 +781,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-04-16T15:30:05Z</t>
+          <t>2025-05-13T01:24:23Z</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-04-16T15:30:05Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K4" t="n">
         <v>86643</v>
@@ -816,16 +816,16 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2025-06-23T04:51:46Z</t>
+          <t>2025-07-03T18:54:50Z</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>7874</v>
+        <v>6921</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5211091', 'current_grade': None, 'current_score': 99.42, 'final_grade': None, 'final_score': 34.27, 'unposted_current_score': 99.42, 'unposted_current_grade': None, 'unposted_final_score': 34.27, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5463183', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 4.17, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 4.17, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -835,41 +835,41 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>U28485441</t>
+          <t>U04428333</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5211091</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5463183</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>{'id': 5211091, 'name': 'Emily Anderson', 'created_at': '2023-08-15T17:04:53-04:00', 'sortable_name': 'Anderson, Emily', 'short_name': 'Emily Anderson', 'sis_user_id': 'U28485441', 'integration_id': None, 'login_id': 'emilyanderson1'}</t>
+          <t>{'id': 5463183, 'name': 'Tomas Bayona', 'created_at': '2024-12-09T17:05:02-05:00', 'sortable_name': 'Bayona, Tomas', 'short_name': 'Tomas Bayona', 'sis_user_id': 'U04428333', 'integration_id': None, 'login_id': 'tomasb'}</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>45947939</v>
+        <v>46314005</v>
       </c>
       <c r="B5" t="n">
-        <v>5252563</v>
+        <v>5455193</v>
       </c>
       <c r="C5" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -878,19 +878,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-04-14T19:25:03Z</t>
+          <t>2025-05-14T01:23:45Z</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-04-14T19:25:03Z</t>
+          <t>2025-07-01T23:25:03Z</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K5" t="n">
         <v>86643</v>
@@ -913,16 +913,16 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-06-23T03:43:37Z</t>
+          <t>2025-07-03T17:27:35Z</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>8214</v>
+        <v>7515</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5252563', 'current_grade': None, 'current_score': 94.38, 'final_grade': None, 'final_score': 33.44, 'unposted_current_score': 94.38, 'unposted_current_grade': None, 'unposted_final_score': 33.44, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5455193', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 13.06, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 13.06, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -932,41 +932,41 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>U49169228</t>
+          <t>U34856277</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5252563</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5455193</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>{'id': 5252563, 'name': 'Raissa Avila Oliveira', 'created_at': '2023-10-15T15:04:31-04:00', 'sortable_name': 'Avila Oliveira, Raissa', 'short_name': 'Raissa Avila Oliveira', 'sis_user_id': 'U49169228', 'integration_id': None, 'login_id': 'raissa28'}</t>
+          <t>{'id': 5455193, 'name': 'Joseph Beauchesne-Mattioli', 'created_at': '2024-11-22T13:05:15-05:00', 'sortable_name': 'Beauchesne-Mattioli, Joseph', 'short_name': 'Joseph Beauchesne-Mattioli', 'sis_user_id': 'U34856277', 'integration_id': None, 'login_id': 'mj16'}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>45936703</v>
+        <v>46305327</v>
       </c>
       <c r="B6" t="n">
-        <v>5243067</v>
+        <v>5430865</v>
       </c>
       <c r="C6" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -975,19 +975,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-04-14T15:30:24Z</t>
+          <t>2025-05-13T05:46:27Z</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-04-14T15:30:24Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K6" t="n">
         <v>86643</v>
@@ -1010,16 +1010,16 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2025-06-21T20:22:35Z</t>
+          <t>2025-07-02T18:31:20Z</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>9444</v>
+        <v>1206</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5243067', 'current_grade': None, 'current_score': 96.05, 'final_grade': None, 'final_score': 34.62, 'unposted_current_score': 96.05, 'unposted_current_grade': None, 'unposted_final_score': 34.62, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5430865', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1029,41 +1029,41 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>U31638628</t>
+          <t>U35143484</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5243067</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5430865</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>{'id': 5243067, 'name': 'Abby Backstrom', 'created_at': '2023-10-04T11:04:32-04:00', 'sortable_name': 'Backstrom, Abby', 'short_name': 'Abby Backstrom', 'sis_user_id': 'U31638628', 'integration_id': None, 'login_id': 'abbybackstrom'}</t>
+          <t>{'id': 5430865, 'name': 'Jorge Behnke Chanes', 'created_at': '2024-10-30T17:05:32-04:00', 'sortable_name': 'Behnke Chanes, Jorge', 'short_name': 'Jorge Behnke Chanes', 'sis_user_id': 'U35143484', 'integration_id': None, 'login_id': 'jorgeb161'}</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>46006535</v>
+        <v>46504827</v>
       </c>
       <c r="B7" t="n">
-        <v>5274461</v>
+        <v>5455745</v>
       </c>
       <c r="C7" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1072,19 +1072,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-04-17T13:25:25Z</t>
+          <t>2025-06-09T13:24:28Z</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-04-17T13:25:25Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K7" t="n">
         <v>86643</v>
@@ -1107,16 +1107,16 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2025-06-12T20:56:17Z</t>
+          <t>2025-07-03T00:58:36Z</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>4424</v>
+        <v>3272</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5274461', 'current_grade': None, 'current_score': 63.13, 'final_grade': None, 'final_score': 16.72, 'unposted_current_score': 63.13, 'unposted_current_grade': None, 'unposted_final_score': 16.72, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5455745', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1126,41 +1126,41 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>U08354499</t>
+          <t>U80150629</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5274461</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5455745</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>{'id': 5274461, 'name': 'Nathan Baena', 'created_at': '2023-10-31T15:04:58-04:00', 'sortable_name': 'Baena, Nathan', 'short_name': 'Nathan Baena', 'sis_user_id': 'U08354499', 'integration_id': None, 'login_id': 'nbaena'}</t>
+          <t>{'id': 5455745, 'name': 'Angelis Bowling', 'created_at': '2024-11-22T17:04:39-05:00', 'sortable_name': 'Bowling, Angelis', 'short_name': 'Angelis Bowling', 'sis_user_id': 'U80150629', 'integration_id': None, 'login_id': 'angelisb'}</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>45850029</v>
+        <v>46453553</v>
       </c>
       <c r="B8" t="n">
-        <v>5046387</v>
+        <v>5460725</v>
       </c>
       <c r="C8" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1169,19 +1169,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-04-09T15:34:04Z</t>
+          <t>2025-05-28T17:30:33Z</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-04-09T15:34:04Z</t>
+          <t>2025-05-28T17:30:33Z</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K8" t="n">
         <v>86643</v>
@@ -1204,16 +1204,16 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2025-06-22T23:54:12Z</t>
+          <t>2025-07-02T19:39:17Z</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>20653</v>
+        <v>4366</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5046387', 'current_grade': None, 'current_score': 96.55, 'final_grade': None, 'final_score': 37.84, 'unposted_current_score': 96.55, 'unposted_current_grade': None, 'unposted_final_score': 37.84, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5460725', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 7.5, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 7.5, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1223,41 +1223,41 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>U97336385</t>
+          <t>U17581126</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5046387</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5460725</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>{'id': 5046387, 'name': 'Amelia Blumer', 'created_at': '2022-11-01T19:04:18-04:00', 'sortable_name': 'Blumer, Amelia', 'short_name': 'Amelia Blumer', 'sis_user_id': 'U97336385', 'integration_id': None, 'login_id': 'ameliagraceblumer'}</t>
+          <t>{'id': 5460725, 'name': 'Mia Chotard', 'created_at': '2024-12-04T11:04:50-05:00', 'sortable_name': 'Chotard, Mia', 'short_name': 'Mia Chotard', 'sis_user_id': 'U17581126', 'integration_id': None, 'login_id': 'miachotard'}</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>45944851</v>
+        <v>46634895</v>
       </c>
       <c r="B9" t="n">
-        <v>5018111</v>
+        <v>5457355</v>
       </c>
       <c r="C9" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1266,19 +1266,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-04-14T17:27:18Z</t>
+          <t>2025-06-30T15:25:23Z</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-04-14T17:27:18Z</t>
+          <t>2025-06-30T15:25:23Z</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K9" t="n">
         <v>86643</v>
@@ -1301,16 +1301,16 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2025-06-23T14:18:03Z</t>
+          <t>2025-07-02T15:17:20Z</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>26061</v>
+        <v>1981</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5018111', 'current_grade': None, 'current_score': 91.49, 'final_grade': None, 'final_score': 36.61, 'unposted_current_score': 91.49, 'unposted_current_grade': None, 'unposted_final_score': 36.61, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5457355', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1320,41 +1320,41 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>U60844883</t>
+          <t>U76594284</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5018111</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5457355</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>{'id': 5018111, 'name': 'Amelia Brown', 'created_at': '2022-10-10T17:04:44-04:00', 'sortable_name': 'Brown, Amelia', 'short_name': 'Amelia Brown', 'sis_user_id': 'U60844883', 'integration_id': None, 'login_id': 'ameliabrown1'}</t>
+          <t>{'id': 5457355, 'name': 'Syrena Demascio', 'created_at': '2024-11-26T09:04:28-05:00', 'sortable_name': 'Demascio, Syrena', 'short_name': 'Syrena Demascio', 'sis_user_id': 'U76594284', 'integration_id': None, 'login_id': 'sdemascio'}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>45949803</v>
+        <v>46307509</v>
       </c>
       <c r="B10" t="n">
-        <v>5341511</v>
+        <v>5477453</v>
       </c>
       <c r="C10" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,19 +1363,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-04-14T19:26:18Z</t>
+          <t>2025-05-13T15:25:20Z</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-04-14T19:26:18Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K10" t="n">
         <v>86643</v>
@@ -1398,16 +1398,16 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2025-06-22T20:46:11Z</t>
+          <t>2025-07-02T15:04:32Z</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>16991</v>
+        <v>11883</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5341511', 'current_grade': None, 'current_score': 96.8, 'final_grade': None, 'final_score': 36.76, 'unposted_current_score': 96.8, 'unposted_current_grade': None, 'unposted_final_score': 36.76, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5477453', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1417,41 +1417,41 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>U76744237</t>
+          <t>U43118329</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5341511</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5477453</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>{'id': 5341511, 'name': 'Simina Cobut', 'created_at': '2024-03-06T19:04:48-05:00', 'sortable_name': 'Cobut, Simina', 'short_name': 'Simina Cobut', 'sis_user_id': 'U76744237', 'integration_id': None, 'login_id': 'scobut'}</t>
+          <t>{'id': 5477453, 'name': 'Mason Desilles', 'created_at': '2025-01-07T13:04:59-05:00', 'sortable_name': 'Desilles, Mason', 'short_name': 'Mason Desilles', 'sis_user_id': 'U43118329', 'integration_id': None, 'login_id': 'mdesilles'}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>45978739</v>
+        <v>46302399</v>
       </c>
       <c r="B11" t="n">
-        <v>5254955</v>
+        <v>5459721</v>
       </c>
       <c r="C11" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1460,19 +1460,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-04-16T11:42:36Z</t>
+          <t>2025-05-12T21:24:50Z</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-04-16T11:42:36Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K11" t="n">
         <v>86643</v>
@@ -1495,16 +1495,16 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2025-06-22T17:17:14Z</t>
+          <t>2025-07-03T16:30:06Z</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>22097</v>
+        <v>10345</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5254955', 'current_grade': None, 'current_score': 82.0, 'final_grade': None, 'final_score': 30.27, 'unposted_current_score': 82.0, 'unposted_current_grade': None, 'unposted_final_score': 30.27, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5459721', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 16.39, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 16.39, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -1514,41 +1514,41 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>U67616951</t>
+          <t>U02313205</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5254955</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5459721</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>{'id': 5254955, 'name': 'Nola Coyle', 'created_at': '2023-10-17T11:04:33-04:00', 'sortable_name': 'Coyle, Nola', 'short_name': 'Nola Coyle', 'sis_user_id': 'U67616951', 'integration_id': None, 'login_id': 'nolacoyle'}</t>
+          <t>{'id': 5459721, 'name': 'Olivia Doty', 'created_at': '2024-12-02T17:04:51-05:00', 'sortable_name': 'Doty, Olivia', 'short_name': 'Olivia Doty', 'sis_user_id': 'U02313205', 'integration_id': None, 'login_id': 'oliviadoty42'}</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>45952903</v>
+        <v>46476443</v>
       </c>
       <c r="B12" t="n">
-        <v>5078245</v>
+        <v>5459685</v>
       </c>
       <c r="C12" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1557,19 +1557,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-04-14T21:25:20Z</t>
+          <t>2025-06-02T17:26:01Z</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-04-14T21:25:20Z</t>
+          <t>2025-06-02T17:26:01Z</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K12" t="n">
         <v>86643</v>
@@ -1592,16 +1592,16 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2025-06-23T03:30:52Z</t>
+          <t>2025-07-02T15:02:49Z</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>33287</v>
+        <v>4856</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5078245', 'current_grade': None, 'current_score': 93.84, 'final_grade': None, 'final_score': 34.52, 'unposted_current_score': 93.84, 'unposted_current_grade': None, 'unposted_final_score': 34.52, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5459685', 'current_grade': None, 'current_score': 0.0, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': 0.0, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -1611,41 +1611,41 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>U39002975</t>
+          <t>U51449959</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5078245</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5459685</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>{'id': 5078245, 'name': 'Kaylee Cruz', 'created_at': '2022-12-01T23:48:36-05:00', 'sortable_name': 'Cruz, Kaylee', 'short_name': 'Kaylee Cruz', 'sis_user_id': 'U39002975', 'integration_id': None, 'login_id': 'kayleecruz', 'pronouns': 'She/Her'}</t>
+          <t>{'id': 5459685, 'name': 'Lincoln Dykes', 'created_at': '2024-12-02T17:04:20-05:00', 'sortable_name': 'Dykes, Lincoln', 'short_name': 'Lincoln Dykes', 'sis_user_id': 'U51449959', 'integration_id': None, 'login_id': 'lincolndykes'}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>45994921</v>
+        <v>46424901</v>
       </c>
       <c r="B13" t="n">
-        <v>5226673</v>
+        <v>5490299</v>
       </c>
       <c r="C13" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1654,19 +1654,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-04-16T17:27:50Z</t>
+          <t>2025-05-21T17:24:51Z</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-04-16T17:27:50Z</t>
+          <t>2025-05-21T17:24:51Z</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K13" t="n">
         <v>86643</v>
@@ -1689,16 +1689,16 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2025-06-23T03:29:32Z</t>
+          <t>2025-07-03T17:34:57Z</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>31173</v>
+        <v>5981</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5226673', 'current_grade': None, 'current_score': 83.59, 'final_grade': None, 'final_score': 29.87, 'unposted_current_score': 83.59, 'unposted_current_grade': None, 'unposted_final_score': 29.87, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5490299', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 7.5, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 7.5, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -1708,41 +1708,41 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>U77353325</t>
+          <t>U01531964</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5226673</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5490299</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>{'id': 5226673, 'name': 'Brayan Cuba Echemendia', 'created_at': '2023-09-07T11:04:20-04:00', 'sortable_name': 'Cuba Echemendia, Brayan', 'short_name': 'Brayan Cuba Echemendia', 'sis_user_id': 'U77353325', 'integration_id': None, 'login_id': 'bcuba'}</t>
+          <t>{'id': 5490299, 'name': 'Serkan Eren', 'created_at': '2025-01-22T15:05:02-05:00', 'sortable_name': 'Eren, Serkan', 'short_name': 'Serkan Eren', 'sis_user_id': 'U01531964', 'integration_id': None, 'login_id': 'serkan2'}</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>45977455</v>
+        <v>46316825</v>
       </c>
       <c r="B14" t="n">
-        <v>5285177</v>
+        <v>5477499</v>
       </c>
       <c r="C14" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1751,19 +1751,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-04-16T11:41:48Z</t>
+          <t>2025-05-14T15:25:19Z</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-04-16T11:41:48Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K14" t="n">
         <v>86643</v>
@@ -1786,16 +1786,16 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2025-06-23T15:34:25Z</t>
+          <t>2025-07-02T15:41:52Z</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
-        <v>25037</v>
+        <v>3248</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5285177', 'current_grade': None, 'current_score': 97.34, 'final_grade': None, 'final_score': 37.14, 'unposted_current_score': 97.34, 'unposted_current_grade': None, 'unposted_final_score': 37.14, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5477499', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -1805,41 +1805,41 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>U68942917</t>
+          <t>U18738725</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5285177</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5477499</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>{'id': 5285177, 'name': 'Jahzara Cyrus', 'created_at': '2023-11-03T11:05:11-04:00', 'sortable_name': 'Cyrus, Jahzara', 'short_name': 'Jahzara Cyrus', 'sis_user_id': 'U68942917', 'integration_id': None, 'login_id': 'jahzaracyrus'}</t>
+          <t>{'id': 5477499, 'name': 'Isabele Fischer Lima', 'created_at': '2025-01-07T13:05:35-05:00', 'sortable_name': 'Fischer Lima, Isabele', 'short_name': 'Isabele Fischer Lima', 'sis_user_id': 'U18738725', 'integration_id': None, 'login_id': 'fischerlima'}</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>45974045</v>
+        <v>46316443</v>
       </c>
       <c r="B15" t="n">
-        <v>5324167</v>
+        <v>5423489</v>
       </c>
       <c r="C15" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1848,19 +1848,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-04-16T11:39:02Z</t>
+          <t>2025-05-14T15:24:41Z</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-04-16T11:39:02Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K15" t="n">
         <v>86643</v>
@@ -1883,16 +1883,16 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>2025-06-23T11:10:27Z</t>
+          <t>2025-07-03T19:27:00Z</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>18196</v>
+        <v>5557</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5324167', 'current_grade': None, 'current_score': 99.43, 'final_grade': None, 'final_score': 42.0, 'unposted_current_score': 99.43, 'unposted_current_grade': None, 'unposted_final_score': 42.0, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5423489', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 1.11, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 1.11, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -1902,41 +1902,41 @@
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>U73732665</t>
+          <t>U84624664</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5324167</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5423489</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>{'id': 5324167, 'name': 'Madison Dumerlin', 'created_at': '2024-01-29T15:04:31-05:00', 'sortable_name': 'Dumerlin, Madison', 'short_name': 'Madison Dumerlin', 'sis_user_id': 'U73732665', 'integration_id': None, 'login_id': 'mdumerlin'}</t>
+          <t>{'id': 5423489, 'name': 'Brennon Flagg', 'created_at': '2024-10-21T17:05:43-04:00', 'sortable_name': 'Flagg, Brennon', 'short_name': 'Brennon Flagg', 'sis_user_id': 'U84624664', 'integration_id': None, 'login_id': 'brennonflagg'}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>45975141</v>
+        <v>46453695</v>
       </c>
       <c r="B16" t="n">
-        <v>5266413</v>
+        <v>5472249</v>
       </c>
       <c r="C16" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1945,19 +1945,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-04-16T11:39:46Z</t>
+          <t>2025-05-28T17:30:46Z</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-04-16T11:39:46Z</t>
+          <t>2025-05-28T17:30:46Z</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K16" t="n">
         <v>86643</v>
@@ -1980,16 +1980,16 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2025-06-23T01:16:29Z</t>
+          <t>2025-07-02T15:01:53Z</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>6633</v>
+        <v>6620</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5266413', 'current_grade': None, 'current_score': 95.62, 'final_grade': None, 'final_score': 34.31, 'unposted_current_score': 95.62, 'unposted_current_grade': None, 'unposted_final_score': 34.31, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5472249', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -1999,41 +1999,41 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>U41890243</t>
+          <t>U92553543</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5266413</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5472249</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>{'id': 5266413, 'name': 'Anya Effinger', 'created_at': '2023-10-29T15:04:22-04:00', 'sortable_name': 'Effinger, Anya', 'short_name': 'Anya Effinger', 'sis_user_id': 'U41890243', 'integration_id': None, 'login_id': 'anyaeffinger'}</t>
+          <t>{'id': 5472249, 'name': 'Dylan Florio', 'created_at': '2024-12-19T17:06:06-05:00', 'sortable_name': 'Florio, Dylan', 'short_name': 'Dylan Florio', 'sis_user_id': 'U92553543', 'integration_id': None, 'login_id': 'dylanflorio'}</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>45719639</v>
+        <v>46396117</v>
       </c>
       <c r="B17" t="n">
-        <v>4845467</v>
+        <v>5463039</v>
       </c>
       <c r="C17" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2042,19 +2042,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-04-02T15:26:03Z</t>
+          <t>2025-05-19T15:24:34Z</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-04-02T15:26:03Z</t>
+          <t>2025-05-19T15:24:34Z</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K17" t="n">
         <v>86643</v>
@@ -2077,16 +2077,16 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2025-06-23T12:02:13Z</t>
+          <t>2025-07-03T18:13:36Z</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>3738</v>
+        <v>6376</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/4845467', 'current_grade': None, 'current_score': 74.27, 'final_grade': None, 'final_score': 23.15, 'unposted_current_score': 74.27, 'unposted_current_grade': None, 'unposted_final_score': 23.15, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5463039', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 3.33, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 3.33, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -2096,41 +2096,41 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>U33752946</t>
+          <t>U86048436</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/4845467</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5463039</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>{'id': 4845467, 'name': 'Danae Ferguson', 'created_at': '2021-12-01T17:04:18-05:00', 'sortable_name': 'Ferguson, Danae', 'short_name': 'Danae Ferguson', 'sis_user_id': 'U33752946', 'integration_id': None, 'login_id': 'danaeferguson'}</t>
+          <t>{'id': 5463039, 'name': 'Caitlin Ford', 'created_at': '2024-12-09T15:05:24-05:00', 'sortable_name': 'Ford, Caitlin', 'short_name': 'Caitlin Ford', 'sis_user_id': 'U86048436', 'integration_id': None, 'login_id': 'cjford'}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>45728809</v>
+        <v>46509463</v>
       </c>
       <c r="B18" t="n">
-        <v>4596715</v>
+        <v>5459867</v>
       </c>
       <c r="C18" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,19 +2139,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-04-02T17:30:16Z</t>
+          <t>2025-06-09T21:24:49Z</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-04-02T17:30:16Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K18" t="n">
         <v>86643</v>
@@ -2174,16 +2174,16 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2025-06-20T22:05:02Z</t>
+          <t>2025-07-02T15:09:18Z</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>2421</v>
+        <v>13101</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/4596715', 'current_grade': None, 'current_score': 88.94, 'final_grade': None, 'final_score': 29.4, 'unposted_current_score': 88.94, 'unposted_current_grade': None, 'unposted_final_score': 29.4, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5459867', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -2193,41 +2193,41 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>U96867910</t>
+          <t>U20279434</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/4596715</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5459867</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>{'id': 4596715, 'name': 'Madison Finney', 'created_at': '2020-10-20T13:42:08-04:00', 'sortable_name': 'Finney, Madison', 'short_name': 'Madison Finney', 'sis_user_id': 'U96867910', 'integration_id': None, 'login_id': 'finneym'}</t>
+          <t>{'id': 5459867, 'name': 'Dallas Fullwood', 'created_at': '2024-12-02T19:05:40-05:00', 'sortable_name': 'Fullwood, Dallas', 'short_name': 'Dallas Fullwood', 'sis_user_id': 'U20279434', 'integration_id': None, 'login_id': 'dsfullwood'}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>46355643</v>
+        <v>46316711</v>
       </c>
       <c r="B19" t="n">
-        <v>5285071</v>
+        <v>5447867</v>
       </c>
       <c r="C19" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,19 +2236,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-18T05:43:12Z</t>
+          <t>2025-05-14T15:25:08Z</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-18T05:43:12Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K19" t="n">
         <v>86643</v>
@@ -2271,16 +2271,16 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2025-06-23T05:37:15Z</t>
+          <t>2025-07-02T15:27:19Z</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>13915</v>
+        <v>1492</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5285071', 'current_grade': None, 'current_score': 93.66, 'final_grade': None, 'final_score': 32.97, 'unposted_current_score': 93.66, 'unposted_current_grade': None, 'unposted_final_score': 32.97, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5447867', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2290,41 +2290,41 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>U29422861</t>
+          <t>U79139939</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5285071</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5447867</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>{'id': 5285071, 'name': 'Aaron Frias Cruz', 'created_at': '2023-11-03T11:05:06-04:00', 'sortable_name': 'Frias Cruz, Aaron', 'short_name': 'Aaron Frias Cruz', 'sis_user_id': 'U29422861', 'integration_id': None, 'login_id': 'aaronfriascruz'}</t>
+          <t>{'id': 5447867, 'name': 'Gianmarco Garcia', 'created_at': '2024-11-18T17:07:50-05:00', 'sortable_name': 'Garcia, Gianmarco', 'short_name': 'Gianmarco Garcia', 'sis_user_id': 'U79139939', 'integration_id': None, 'login_id': 'gianmarcogarcia'}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>45995309</v>
+        <v>46484583</v>
       </c>
       <c r="B20" t="n">
-        <v>5314605</v>
+        <v>5476707</v>
       </c>
       <c r="C20" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-04-16T17:28:06Z</t>
+          <t>2025-06-03T21:25:18Z</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-04-16T17:28:06Z</t>
+          <t>2025-06-03T21:25:18Z</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K20" t="n">
         <v>86643</v>
@@ -2368,16 +2368,16 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2025-06-23T03:25:07Z</t>
+          <t>2025-07-02T22:16:16Z</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>4347</v>
+        <v>56456</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5314605', 'current_grade': None, 'current_score': 82.98, 'final_grade': None, 'final_score': 31.53, 'unposted_current_score': 82.98, 'unposted_current_grade': None, 'unposted_final_score': 31.53, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5476707', 'current_grade': None, 'current_score': 83.13, 'final_grade': None, 'final_score': 6.71, 'unposted_current_score': 83.13, 'unposted_current_grade': None, 'unposted_final_score': 6.71, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2387,41 +2387,41 @@
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>U27224274</t>
+          <t>U56204068</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5314605</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5476707</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>{'id': 5314605, 'name': 'Kristopher Hackler', 'created_at': '2024-01-09T13:04:45-05:00', 'sortable_name': 'Hackler, Kristopher', 'short_name': 'Kristopher Hackler', 'sis_user_id': 'U27224274', 'integration_id': None, 'login_id': 'jett3'}</t>
+          <t>{'id': 5476707, 'name': 'Virginia Grosset', 'created_at': '2025-01-06T19:08:17-05:00', 'sortable_name': 'Grosset, Virginia', 'short_name': 'Virginia Grosset', 'sis_user_id': 'U56204068', 'integration_id': None, 'login_id': 'vgrosset'}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>46002943</v>
+        <v>46302573</v>
       </c>
       <c r="B21" t="n">
-        <v>5341297</v>
+        <v>5446521</v>
       </c>
       <c r="C21" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2430,19 +2430,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-04-16T23:29:26Z</t>
+          <t>2025-05-12T21:24:58Z</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-04-16T23:29:26Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K21" t="n">
         <v>86643</v>
@@ -2465,16 +2465,16 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2025-06-22T21:21:05Z</t>
+          <t>2025-07-02T13:44:47Z</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>7989</v>
+        <v>9295</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5341297', 'current_grade': None, 'current_score': 94.29, 'final_grade': None, 'final_score': 33.33, 'unposted_current_score': 94.29, 'unposted_current_grade': None, 'unposted_final_score': 33.33, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5446521', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -2484,41 +2484,41 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>U53109452</t>
+          <t>U34028673</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5341297</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5446521</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>{'id': 5341297, 'name': 'Roniel Hamilton', 'created_at': '2024-03-06T15:04:24-05:00', 'sortable_name': 'Hamilton, Roniel', 'short_name': 'Roniel Hamilton', 'sis_user_id': 'U53109452', 'integration_id': None, 'login_id': 'ronielhamilton'}</t>
+          <t>{'id': 5446521, 'name': 'Parker Halsey', 'created_at': '2024-11-16T11:05:37-05:00', 'sortable_name': 'Halsey, Parker', 'short_name': 'Parker Halsey', 'sis_user_id': 'U34028673', 'integration_id': None, 'login_id': 'parkerhalsey'}</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>45932473</v>
+        <v>46312525</v>
       </c>
       <c r="B22" t="n">
-        <v>5322963</v>
+        <v>5444045</v>
       </c>
       <c r="C22" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2527,19 +2527,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-04-14T15:29:26Z</t>
+          <t>2025-05-13T21:24:28Z</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-04-14T15:29:26Z</t>
+          <t>2025-05-13T21:24:28Z</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K22" t="n">
         <v>86643</v>
@@ -2562,16 +2562,16 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2025-06-23T00:58:22Z</t>
+          <t>2025-07-03T17:29:46Z</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>20255</v>
+        <v>8642</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5322963', 'current_grade': None, 'current_score': 90.86, 'final_grade': None, 'final_score': 33.58, 'unposted_current_score': 90.86, 'unposted_current_grade': None, 'unposted_final_score': 33.58, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5444045', 'current_grade': None, 'current_score': 86.96, 'final_grade': None, 'final_score': 2.78, 'unposted_current_score': 86.96, 'unposted_current_grade': None, 'unposted_final_score': 2.78, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -2581,41 +2581,41 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>U14123049</t>
+          <t>U27804657</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5322963</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5444045</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>{'id': 5322963, 'name': 'Matthew Isom', 'created_at': '2024-01-26T15:04:52-05:00', 'sortable_name': 'Isom, Matthew', 'short_name': 'Matthew Isom', 'sis_user_id': 'U14123049', 'integration_id': None, 'login_id': 'matthewisom1'}</t>
+          <t>{'id': 5444045, 'name': 'Scott Hodges', 'created_at': '2024-11-13T15:07:20-05:00', 'sortable_name': 'Hodges, Scott', 'short_name': 'Scott Hodges', 'sis_user_id': 'U27804657', 'integration_id': None, 'login_id': 'shodges28'}</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>45932011</v>
+        <v>46297431</v>
       </c>
       <c r="B23" t="n">
-        <v>5234779</v>
+        <v>5444997</v>
       </c>
       <c r="C23" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2624,19 +2624,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-04-14T15:29:20Z</t>
+          <t>2025-05-12T17:24:21Z</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-04-14T15:29:20Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K23" t="n">
         <v>86643</v>
@@ -2659,16 +2659,16 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>2025-06-23T12:17:31Z</t>
+          <t>2025-07-03T20:04:57Z</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
-        <v>11226</v>
+        <v>4140</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5234779', 'current_grade': None, 'current_score': 99.98, 'final_grade': None, 'final_score': 59.23, 'unposted_current_score': 99.98, 'unposted_current_grade': None, 'unposted_final_score': 59.23, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5444997', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 17.78, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 17.78, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -2678,41 +2678,41 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>U06912183</t>
+          <t>U87264562</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5234779</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5444997</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>{'id': 5234779, 'name': 'Shruthi Jayaraman', 'created_at': '2023-09-21T19:04:13-04:00', 'sortable_name': 'Jayaraman, Shruthi', 'short_name': 'Shruthi Jayaraman', 'sis_user_id': 'U06912183', 'integration_id': None, 'login_id': 'shruthij'}</t>
+          <t>{'id': 5444997, 'name': 'Marissa Holgrimson', 'created_at': '2024-11-14T15:05:47-05:00', 'sortable_name': 'Holgrimson, Marissa', 'short_name': 'Marissa Holgrimson', 'sis_user_id': 'U87264562', 'integration_id': None, 'login_id': 'marissaholgrimson', 'pronouns': 'she/her/hers'}</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>45990713</v>
+        <v>46475051</v>
       </c>
       <c r="B24" t="n">
-        <v>5244275</v>
+        <v>5435497</v>
       </c>
       <c r="C24" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2721,19 +2721,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-04-16T15:30:55Z</t>
+          <t>2025-06-02T15:25:12Z</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-04-16T15:30:55Z</t>
+          <t>2025-06-02T15:25:12Z</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K24" t="n">
         <v>86643</v>
@@ -2756,16 +2756,16 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>2025-06-23T02:44:06Z</t>
+          <t>2025-07-02T19:46:56Z</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
-        <v>10689</v>
+        <v>14603</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5244275', 'current_grade': None, 'current_score': 99.74, 'final_grade': None, 'final_score': 37.18, 'unposted_current_score': 99.74, 'unposted_current_grade': None, 'unposted_final_score': 37.18, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5435497', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 4.17, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 4.17, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -2775,41 +2775,41 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>U45479877</t>
+          <t>U41333662</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5244275</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5435497</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>{'id': 5244275, 'name': 'Ethan Jeffcott', 'created_at': '2023-10-05T17:04:21-04:00', 'sortable_name': 'Jeffcott, Ethan', 'short_name': 'Ethan Jeffcott', 'sis_user_id': 'U45479877', 'integration_id': None, 'login_id': 'ethanjeffcott'}</t>
+          <t>{'id': 5435497, 'name': 'Brandon Jackson', 'created_at': '2024-11-05T11:07:04-05:00', 'sortable_name': 'Jackson, Brandon', 'short_name': 'Brandon Jackson', 'sis_user_id': 'U41333662', 'integration_id': None, 'login_id': 'brandonjackson'}</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>45931765</v>
+        <v>46297439</v>
       </c>
       <c r="B25" t="n">
-        <v>5033061</v>
+        <v>5464229</v>
       </c>
       <c r="C25" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2818,19 +2818,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-04-14T15:29:17Z</t>
+          <t>2025-05-12T17:24:22Z</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-04-14T15:29:17Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K25" t="n">
         <v>86643</v>
@@ -2853,16 +2853,16 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>2025-06-23T01:14:40Z</t>
+          <t>2025-07-03T14:50:39Z</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
-        <v>4933</v>
+        <v>11775</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5033061', 'current_grade': None, 'current_score': 87.49, 'final_grade': None, 'final_score': 30.03, 'unposted_current_score': 87.49, 'unposted_current_grade': None, 'unposted_final_score': 30.03, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5464229', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 16.39, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 16.39, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -2872,41 +2872,41 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>U39049944</t>
+          <t>U31878090</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5033061</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5464229</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>{'id': 5033061, 'name': 'Maria Kazimirov', 'created_at': '2022-10-24T15:04:42-04:00', 'sortable_name': 'Kazimirov, Maria', 'short_name': 'Maria Kazimirov', 'sis_user_id': 'U39049944', 'integration_id': None, 'login_id': 'mkazimirov'}</t>
+          <t>{'id': 5464229, 'name': 'Angel Jimenez', 'created_at': '2024-12-10T15:05:36-05:00', 'sortable_name': 'Jimenez, Angel', 'short_name': 'Angel Jimenez', 'sis_user_id': 'U31878090', 'integration_id': None, 'login_id': 'arjimenez'}</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>45985477</v>
+        <v>46309585</v>
       </c>
       <c r="B26" t="n">
-        <v>5287447</v>
+        <v>5445225</v>
       </c>
       <c r="C26" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2915,19 +2915,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-04-16T13:28:51Z</t>
+          <t>2025-05-13T17:24:53Z</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-04-16T13:28:51Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K26" t="n">
         <v>86643</v>
@@ -2950,16 +2950,16 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>2025-06-23T01:34:25Z</t>
+          <t>2025-07-02T15:24:22Z</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="n">
-        <v>11681</v>
+        <v>46313</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5287447', 'current_grade': None, 'current_score': 99.43, 'final_grade': None, 'final_score': 50.74, 'unposted_current_score': 99.43, 'unposted_current_grade': None, 'unposted_final_score': 50.74, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5445225', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -2969,41 +2969,41 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>U15697663</t>
+          <t>U85513252</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5287447</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5445225</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>{'id': 5287447, 'name': 'Tristan Lapasanda', 'created_at': '2023-11-04T09:04:31-04:00', 'sortable_name': 'Lapasanda, Tristan', 'short_name': 'Tristan Lapasanda', 'sis_user_id': 'U15697663', 'integration_id': None, 'login_id': 'tlapasanda', 'pronouns': 'he/him/his'}</t>
+          <t>{'id': 5445225, 'name': 'Joseph Knight', 'created_at': '2024-11-14T19:05:27-05:00', 'sortable_name': 'Knight, Joseph', 'short_name': 'Joseph Knight', 'sis_user_id': 'U85513252', 'integration_id': None, 'login_id': 'josephknight'}</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>45993723</v>
+        <v>46307321</v>
       </c>
       <c r="B27" t="n">
-        <v>5277805</v>
+        <v>5462855</v>
       </c>
       <c r="C27" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3012,19 +3012,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-04-16T17:26:56Z</t>
+          <t>2025-05-13T15:25:02Z</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-04-16T17:26:56Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K27" t="n">
         <v>86643</v>
@@ -3047,16 +3047,16 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>2025-06-23T10:10:31Z</t>
+          <t>2025-07-02T17:46:22Z</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
-        <v>7877</v>
+        <v>33193</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5277805', 'current_grade': None, 'current_score': 93.79, 'final_grade': None, 'final_score': 33.16, 'unposted_current_score': 93.79, 'unposted_current_grade': None, 'unposted_final_score': 33.16, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5462855', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 4.17, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 4.17, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -3066,41 +3066,41 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>U41939870</t>
+          <t>U04008596</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5277805</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5462855</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>{'id': 5277805, 'name': 'Ngoc Mai Khanh Le', 'created_at': '2023-11-01T13:04:45-04:00', 'sortable_name': 'Le, Ngoc Mai Khanh', 'short_name': 'Ngoc Mai Khanh Le', 'sis_user_id': 'U41939870', 'integration_id': None, 'login_id': 'ngocmaikhanhle'}</t>
+          <t>{'id': 5462855, 'name': 'Sofia Yumi Kubo Nimer Silva', 'created_at': '2024-12-09T13:06:25-05:00', 'sortable_name': 'Kubo Nimer Silva, Sofia Yumi', 'short_name': 'Sofia Yumi Kubo Nimer Silva', 'sis_user_id': 'U04008596', 'integration_id': None, 'login_id': 'sofiayumi'}</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>45949319</v>
+        <v>46305711</v>
       </c>
       <c r="B28" t="n">
-        <v>5268281</v>
+        <v>5489989</v>
       </c>
       <c r="C28" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3109,19 +3109,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-04-14T19:25:59Z</t>
+          <t>2025-05-13T05:47:06Z</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-04-14T19:25:59Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K28" t="n">
         <v>86643</v>
@@ -3144,16 +3144,16 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2025-06-23T02:53:46Z</t>
+          <t>2025-07-02T18:37:32Z</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="n">
-        <v>17566</v>
+        <v>3612</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5268281', 'current_grade': None, 'current_score': 91.2, 'final_grade': None, 'final_score': 31.37, 'unposted_current_score': 91.2, 'unposted_current_grade': None, 'unposted_final_score': 31.37, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5489989', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -3163,41 +3163,41 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>U84591109</t>
+          <t>U13049719</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5268281</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5489989</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>{'id': 5268281, 'name': 'Anthony Longo', 'created_at': '2023-10-30T19:04:16-04:00', 'sortable_name': 'Longo, Anthony', 'short_name': 'Anthony Longo', 'sis_user_id': 'U84591109', 'integration_id': None, 'login_id': 'aclongo'}</t>
+          <t>{'id': 5489989, 'name': 'Ava Lanier', 'created_at': '2025-01-22T11:06:00-05:00', 'sortable_name': 'Lanier, Ava', 'short_name': 'Ava Lanier', 'sis_user_id': 'U13049719', 'integration_id': None, 'login_id': 'avalanier', 'pronouns': 'she/her/hers'}</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>45975805</v>
+        <v>46483669</v>
       </c>
       <c r="B29" t="n">
-        <v>5321711</v>
+        <v>5445015</v>
       </c>
       <c r="C29" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3206,19 +3206,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-04-16T11:40:24Z</t>
+          <t>2025-06-03T19:24:21Z</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-04-16T11:40:24Z</t>
+          <t>2025-06-03T19:24:21Z</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K29" t="n">
         <v>86643</v>
@@ -3241,16 +3241,16 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>2025-06-15T07:41:21Z</t>
+          <t>2025-07-03T01:34:39Z</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>4357</v>
+        <v>8477</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5321711', 'current_grade': None, 'current_score': 32.86, 'final_grade': None, 'final_score': 14.25, 'unposted_current_score': 32.86, 'unposted_current_grade': None, 'unposted_final_score': 14.25, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5445015', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 8.89, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 8.89, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -3260,41 +3260,41 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>U34518321</t>
+          <t>U44650340</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5321711</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5445015</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>{'id': 5321711, 'name': 'Man Luo', 'created_at': '2024-01-24T13:04:42-05:00', 'sortable_name': 'Luo, Man', 'short_name': 'Man Luo', 'sis_user_id': 'U34518321', 'integration_id': None, 'login_id': 'manluo', 'pronouns': 'She/Her/Hers'}</t>
+          <t>{'id': 5445015, 'name': 'Rachel Larralde', 'created_at': '2024-11-14T15:06:02-05:00', 'sortable_name': 'Larralde, Rachel', 'short_name': 'Rachel Larralde', 'sis_user_id': 'U44650340', 'integration_id': None, 'login_id': 'rachellarralde'}</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>45646025</v>
+        <v>46314211</v>
       </c>
       <c r="B30" t="n">
-        <v>5342207</v>
+        <v>5447619</v>
       </c>
       <c r="C30" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3303,19 +3303,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-03-31T15:26:58Z</t>
+          <t>2025-05-14T01:24:05Z</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-03-31T15:26:58Z</t>
+          <t>2025-05-14T01:24:05Z</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K30" t="n">
         <v>86643</v>
@@ -3338,16 +3338,16 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>2025-06-23T02:12:14Z</t>
+          <t>2025-07-03T14:29:29Z</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>16332</v>
+        <v>12691</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5342207', 'current_grade': None, 'current_score': 93.86, 'final_grade': None, 'final_score': 33.08, 'unposted_current_score': 93.86, 'unposted_current_grade': None, 'unposted_final_score': 33.08, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5447619', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 6.11, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 6.11, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -3357,41 +3357,41 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>U80124108</t>
+          <t>U34125866</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5342207</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5447619</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>{'id': 5342207, 'name': 'Rose Macapinlac', 'created_at': '2024-03-08T09:04:33-05:00', 'sortable_name': 'Macapinlac, Rose', 'short_name': 'Rose Macapinlac', 'sis_user_id': 'U80124108', 'integration_id': None, 'login_id': 'rosemacapinlac'}</t>
+          <t>{'id': 5447619, 'name': 'Eli London', 'created_at': '2024-11-18T17:06:31-05:00', 'sortable_name': 'London, Eli', 'short_name': 'Eli London', 'sis_user_id': 'U34125866', 'integration_id': None, 'login_id': 'elijahlondon'}</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>46357237</v>
+        <v>46317997</v>
       </c>
       <c r="B31" t="n">
-        <v>5255659</v>
+        <v>5425419</v>
       </c>
       <c r="C31" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3400,19 +3400,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-05-18T23:24:44Z</t>
+          <t>2025-05-14T17:24:41Z</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-18T23:24:44Z</t>
+          <t>2025-05-14T17:24:41Z</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K31" t="n">
         <v>86643</v>
@@ -3435,16 +3435,16 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>2025-06-23T03:58:53Z</t>
+          <t>2025-07-02T19:17:55Z</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>8184</v>
+        <v>9703</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5255659', 'current_grade': None, 'current_score': 88.89, 'final_grade': None, 'final_score': 30.78, 'unposted_current_score': 88.89, 'unposted_current_grade': None, 'unposted_final_score': 30.78, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5425419', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 7.5, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 7.5, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
@@ -3454,41 +3454,41 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>U81618490</t>
+          <t>U89866343</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5255659</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5425419</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>{'id': 5255659, 'name': 'Kenon Mangol', 'created_at': '2023-10-17T21:04:22-04:00', 'sortable_name': 'Mangol, Kenon', 'short_name': 'Kenon Mangol', 'sis_user_id': 'U81618490', 'integration_id': None, 'login_id': 'kenonm'}</t>
+          <t>{'id': 5425419, 'name': 'Leila Morales', 'created_at': '2024-10-23T17:05:55-04:00', 'sortable_name': 'Morales, Leila', 'short_name': 'Leila Morales', 'sis_user_id': 'U89866343', 'integration_id': None, 'login_id': 'leilaannmorales', 'pronouns': 'she/her/hers'}</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>45748343</v>
+        <v>46486017</v>
       </c>
       <c r="B32" t="n">
-        <v>5249109</v>
+        <v>5509671</v>
       </c>
       <c r="C32" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3497,19 +3497,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-04-02T19:27:35Z</t>
+          <t>2025-06-04T11:23:17Z</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-04-02T19:27:35Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K32" t="n">
         <v>86643</v>
@@ -3532,16 +3532,16 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>2025-06-23T03:19:50Z</t>
+          <t>2025-07-03T05:38:51Z</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>38246</v>
+        <v>4745</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5249109', 'current_grade': None, 'current_score': 91.94, 'final_grade': None, 'final_score': 32.57, 'unposted_current_score': 91.94, 'unposted_current_grade': None, 'unposted_final_score': 32.57, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5509671', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -3551,41 +3551,41 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>U41730465</t>
+          <t>U33507894</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5249109</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5509671</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>{'id': 5249109, 'name': 'Tyler Martin', 'created_at': '2023-10-11T17:05:06-04:00', 'sortable_name': 'Martin, Tyler', 'short_name': 'Tyler Martin', 'sis_user_id': 'U41730465', 'integration_id': None, 'login_id': 'tylermichaelmartin'}</t>
+          <t>{'id': 5509671, 'name': 'Anna Moreno', 'created_at': '2025-03-06T19:05:59-05:00', 'sortable_name': 'Moreno, Anna', 'short_name': 'Anna Moreno', 'sis_user_id': 'U33507894', 'integration_id': None, 'login_id': 'amoreno209'}</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>45940349</v>
+        <v>46599749</v>
       </c>
       <c r="B33" t="n">
-        <v>4995979</v>
+        <v>5441293</v>
       </c>
       <c r="C33" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3594,19 +3594,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-04-14T15:33:18Z</t>
+          <t>2025-06-23T15:23:35Z</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-04-14T15:33:18Z</t>
+          <t>2025-06-23T15:23:35Z</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K33" t="n">
         <v>86643</v>
@@ -3629,16 +3629,16 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>2025-06-23T04:24:10Z</t>
+          <t>2025-07-02T16:05:36Z</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>9986</v>
+        <v>15303</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/4995979', 'current_grade': None, 'current_score': 92.74, 'final_grade': None, 'final_score': 32.63, 'unposted_current_score': 92.74, 'unposted_current_grade': None, 'unposted_final_score': 32.63, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5441293', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -3648,41 +3648,41 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>U14675155</t>
+          <t>U24356879</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/4995979</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5441293</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>{'id': 4995979, 'name': 'Jenin Masalmah', 'created_at': '2022-09-04T07:04:12-04:00', 'sortable_name': 'Masalmah, Jenin', 'short_name': 'Jenin Masalmah', 'sis_user_id': 'U14675155', 'integration_id': None, 'login_id': 'jeninm1'}</t>
+          <t>{'id': 5441293, 'name': 'Brandon Nguyen', 'created_at': '2024-11-08T17:06:17-05:00', 'sortable_name': 'Nguyen, Brandon', 'short_name': 'Brandon Nguyen', 'sis_user_id': 'U24356879', 'integration_id': None, 'login_id': 'bnguyen61'}</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>45633905</v>
+        <v>46463577</v>
       </c>
       <c r="B34" t="n">
-        <v>5260413</v>
+        <v>5449907</v>
       </c>
       <c r="C34" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3691,19 +3691,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-03-31T11:54:20Z</t>
+          <t>2025-05-30T17:24:45Z</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-03-31T11:54:20Z</t>
+          <t>2025-05-30T17:24:45Z</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K34" t="n">
         <v>86643</v>
@@ -3726,16 +3726,16 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>2025-06-23T12:00:45Z</t>
+          <t>2025-07-02T15:08:25Z</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="n">
-        <v>12785</v>
+        <v>2266</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5260413', 'current_grade': None, 'current_score': 94.57, 'final_grade': None, 'final_score': 42.09, 'unposted_current_score': 94.57, 'unposted_current_grade': None, 'unposted_final_score': 42.09, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5449907', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -3745,41 +3745,41 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>U61370929</t>
+          <t>U08894019</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5260413</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5449907</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>{'id': 5260413, 'name': 'Sara Menesale', 'created_at': '2023-10-22T13:04:29-04:00', 'sortable_name': 'Menesale, Sara', 'short_name': 'Sara Menesale', 'sis_user_id': 'U61370929', 'integration_id': None, 'login_id': 'saramenesale'}</t>
+          <t>{'id': 5449907, 'name': 'Amanda Nielsen', 'created_at': '2024-11-19T17:07:34-05:00', 'sortable_name': 'Nielsen, Amanda', 'short_name': 'Amanda Nielsen', 'sis_user_id': 'U08894019', 'integration_id': None, 'login_id': 'amandanielsen'}</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>45639809</v>
+        <v>46396405</v>
       </c>
       <c r="B35" t="n">
-        <v>5371577</v>
+        <v>5488551</v>
       </c>
       <c r="C35" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3788,19 +3788,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-03-31T13:28:15Z</t>
+          <t>2025-05-19T15:25:02Z</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-03-31T13:28:15Z</t>
+          <t>2025-05-19T15:25:02Z</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K35" t="n">
         <v>86643</v>
@@ -3823,16 +3823,16 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>2025-06-23T01:33:45Z</t>
+          <t>2025-07-02T18:29:09Z</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="n">
-        <v>39169</v>
+        <v>7440</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5371577', 'current_grade': None, 'current_score': 99.69, 'final_grade': None, 'final_score': 69.78, 'unposted_current_score': 99.69, 'unposted_current_grade': None, 'unposted_final_score': 69.78, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5488551', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
@@ -3842,41 +3842,41 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>U91969544</t>
+          <t>U32417601</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5371577</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5488551</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>{'id': 5371577, 'name': 'Charles Miller', 'created_at': '2024-06-04T13:04:44-04:00', 'sortable_name': 'Miller, Charles', 'short_name': 'Charles Miller', 'sis_user_id': 'U91969544', 'integration_id': None, 'login_id': 'cmiller19'}</t>
+          <t>{'id': 5488551, 'name': 'Dylan Nyikos', 'created_at': '2025-01-17T19:05:23-05:00', 'sortable_name': 'Nyikos, Dylan', 'short_name': 'Dylan Nyikos', 'sis_user_id': 'U32417601', 'integration_id': None, 'login_id': 'dpnyikos'}</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>45630521</v>
+        <v>46503669</v>
       </c>
       <c r="B36" t="n">
-        <v>5305513</v>
+        <v>5459463</v>
       </c>
       <c r="C36" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3885,19 +3885,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-03-31T11:49:02Z</t>
+          <t>2025-06-08T21:25:48Z</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-03-31T11:49:02Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K36" t="n">
         <v>86643</v>
@@ -3920,16 +3920,16 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2025-06-22T21:38:49Z</t>
+          <t>2025-07-03T20:43:40Z</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>5243</v>
+        <v>263</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5305513', 'current_grade': None, 'current_score': 87.82, 'final_grade': None, 'final_score': 31.49, 'unposted_current_score': 87.82, 'unposted_current_grade': None, 'unposted_final_score': 31.49, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5459463', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -3939,41 +3939,41 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>U88759345</t>
+          <t>U44611120</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5305513</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5459463</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>{'id': 5305513, 'name': 'Madeline Morris', 'created_at': '2023-12-12T19:05:37-05:00', 'sortable_name': 'Morris, Madeline', 'short_name': 'Madeline Morris', 'sis_user_id': 'U88759345', 'integration_id': None, 'login_id': 'madelinemorris'}</t>
+          <t>{'id': 5459463, 'name': 'Xenia Ochoa', 'created_at': '2024-12-02T13:06:57-05:00', 'sortable_name': 'Ochoa, Xenia', 'short_name': 'Xenia Ochoa', 'sis_user_id': 'U44611120', 'integration_id': None, 'login_id': 'xeniaochoa'}</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>45980987</v>
+        <v>46597431</v>
       </c>
       <c r="B37" t="n">
-        <v>5237497</v>
+        <v>5501311</v>
       </c>
       <c r="C37" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3982,19 +3982,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-04-16T13:26:14Z</t>
+          <t>2025-06-21T19:24:18Z</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-04-16T13:26:14Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K37" t="n">
         <v>86643</v>
@@ -4017,16 +4017,16 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2025-06-23T06:02:08Z</t>
+          <t>2025-07-02T19:29:37Z</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="n">
-        <v>11621</v>
+        <v>701</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5237497', 'current_grade': None, 'current_score': 84.83, 'final_grade': None, 'final_score': 30.44, 'unposted_current_score': 84.83, 'unposted_current_grade': None, 'unposted_final_score': 30.44, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5501311', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
@@ -4036,41 +4036,41 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>U80880708</t>
+          <t>U75197896</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5237497</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5501311</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>{'id': 5237497, 'name': 'Sabrina Muhsen', 'created_at': '2023-09-27T11:04:31-04:00', 'sortable_name': 'Muhsen, Sabrina', 'short_name': 'Sabrina Muhsen', 'sis_user_id': 'U80880708', 'integration_id': None, 'login_id': 'sabrinamuhsen'}</t>
+          <t>{'id': 5501311, 'name': 'Mckayla Oliveira', 'created_at': '2025-02-17T15:04:31-05:00', 'sortable_name': 'Oliveira, Mckayla', 'short_name': 'Mckayla Oliveira', 'sis_user_id': 'U75197896', 'integration_id': None, 'login_id': 'mckaylao'}</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>45997709</v>
+        <v>46636435</v>
       </c>
       <c r="B38" t="n">
-        <v>5159167</v>
+        <v>5445241</v>
       </c>
       <c r="C38" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4079,19 +4079,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-04-16T19:26:00Z</t>
+          <t>2025-06-30T19:24:12Z</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-04-16T19:26:00Z</t>
+          <t>2025-06-30T19:24:12Z</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K38" t="n">
         <v>86643</v>
@@ -4114,16 +4114,16 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2025-06-23T03:57:59Z</t>
+          <t>2025-07-02T16:01:25Z</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>37535</v>
+        <v>4379</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5159167', 'current_grade': None, 'current_score': 52.31, 'final_grade': None, 'final_score': 21.18, 'unposted_current_score': 52.31, 'unposted_current_grade': None, 'unposted_final_score': 21.18, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5445241', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -4133,41 +4133,41 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>U44206566</t>
+          <t>U64836173</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5159167</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5445241</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>{'id': 5159167, 'name': 'Tyler Mulligan', 'created_at': '2023-03-26T19:04:38-04:00', 'sortable_name': 'Mulligan, Tyler', 'short_name': 'Tyler Mulligan', 'sis_user_id': 'U44206566', 'integration_id': None, 'login_id': 'tmulligan'}</t>
+          <t>{'id': 5445241, 'name': 'Jason Ortiz-Turcios', 'created_at': '2024-11-14T19:05:41-05:00', 'sortable_name': 'Ortiz-Turcios, Jason', 'short_name': 'Jason Ortiz-Turcios', 'sis_user_id': 'U64836173', 'integration_id': None, 'login_id': 'jason772'}</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>45862979</v>
+        <v>46305677</v>
       </c>
       <c r="B39" t="n">
-        <v>5075195</v>
+        <v>5458329</v>
       </c>
       <c r="C39" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4176,19 +4176,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-04-09T17:27:55Z</t>
+          <t>2025-05-13T05:47:03Z</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-04-09T17:27:55Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K39" t="n">
         <v>86643</v>
@@ -4211,16 +4211,16 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>2025-06-23T01:01:54Z</t>
+          <t>2025-07-02T16:22:27Z</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="n">
-        <v>12204</v>
+        <v>6920</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5075195', 'current_grade': None, 'current_score': 97.58, 'final_grade': None, 'final_score': 32.37, 'unposted_current_score': 97.58, 'unposted_current_grade': None, 'unposted_final_score': 32.37, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5458329', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -4230,41 +4230,41 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>U90358542</t>
+          <t>U15555805</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5075195</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5458329</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>{'id': 5075195, 'name': 'Kripa Nathani', 'created_at': '2022-11-29T11:04:44-05:00', 'sortable_name': 'Nathani, Kripa', 'short_name': 'Kripa Nathani', 'sis_user_id': 'U90358542', 'integration_id': None, 'login_id': 'kripanathani'}</t>
+          <t>{'id': 5458329, 'name': 'Cecelia Parrino', 'created_at': '2024-11-27T09:04:38-05:00', 'sortable_name': 'Parrino, Cecelia', 'short_name': 'Cecelia Parrino', 'sis_user_id': 'U15555805', 'integration_id': None, 'login_id': 'ceceliaparrino'}</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>45990631</v>
+        <v>46304765</v>
       </c>
       <c r="B40" t="n">
-        <v>5266969</v>
+        <v>5487129</v>
       </c>
       <c r="C40" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4273,19 +4273,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-04-16T15:30:53Z</t>
+          <t>2025-05-13T01:24:21Z</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-04-16T15:30:53Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K40" t="n">
         <v>86643</v>
@@ -4308,16 +4308,16 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2025-06-23T00:27:23Z</t>
+          <t>2025-07-03T16:15:27Z</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="n">
-        <v>26121</v>
+        <v>14283</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5266969', 'current_grade': None, 'current_score': 96.97, 'final_grade': None, 'final_score': 38.76, 'unposted_current_score': 96.97, 'unposted_current_grade': None, 'unposted_final_score': 38.76, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5487129', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 2.78, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 2.78, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -4327,41 +4327,41 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>U50645211</t>
+          <t>U16616545</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5266969</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5487129</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>{'id': 5266969, 'name': 'Emily Nguyen', 'created_at': '2023-10-30T07:05:31-04:00', 'sortable_name': 'Nguyen, Emily', 'short_name': 'Emily Nguyen', 'sis_user_id': 'U50645211', 'integration_id': None, 'login_id': 'eknguyen'}</t>
+          <t>{'id': 5487129, 'name': 'Gabe Pruitt', 'created_at': '2025-01-16T15:04:54-05:00', 'sortable_name': 'Pruitt, Gabe', 'short_name': 'Gabe Pruitt', 'sis_user_id': 'U16616545', 'integration_id': None, 'login_id': 'gabrielpruitt', 'pronouns': 'he/him/his'}</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>45985301</v>
+        <v>46443879</v>
       </c>
       <c r="B41" t="n">
-        <v>5269555</v>
+        <v>5462903</v>
       </c>
       <c r="C41" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4370,19 +4370,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-04-16T13:28:44Z</t>
+          <t>2025-05-26T15:23:41Z</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-04-16T13:28:44Z</t>
+          <t>2025-05-26T15:23:41Z</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K41" t="n">
         <v>86643</v>
@@ -4405,16 +4405,16 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>2025-06-23T02:23:03Z</t>
+          <t>2025-07-03T15:13:09Z</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>25767</v>
+        <v>5431</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5269555', 'current_grade': None, 'current_score': 97.68, 'final_grade': None, 'final_score': 37.38, 'unposted_current_score': 97.68, 'unposted_current_grade': None, 'unposted_final_score': 37.38, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5462903', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 1.39, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 1.39, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -4424,41 +4424,41 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>U06953722</t>
+          <t>U74277121</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5269555</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5462903</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>{'id': 5269555, 'name': 'Akela Pacitto', 'created_at': '2023-10-31T09:04:36-04:00', 'sortable_name': 'Pacitto, Akela', 'short_name': 'Akela Pacitto', 'sis_user_id': 'U06953722', 'integration_id': None, 'login_id': 'akelap'}</t>
+          <t>{'id': 5462903, 'name': 'David Rogers', 'created_at': '2024-12-09T13:07:00-05:00', 'sortable_name': 'Rogers, David', 'short_name': 'David Rogers', 'sis_user_id': 'U74277121', 'integration_id': None, 'login_id': 'davidedwardrogers'}</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>45891501</v>
+        <v>46305445</v>
       </c>
       <c r="B42" t="n">
-        <v>5368843</v>
+        <v>5459915</v>
       </c>
       <c r="C42" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4467,19 +4467,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-04-11T01:24:31Z</t>
+          <t>2025-05-13T05:46:39Z</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-04-11T01:24:31Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K42" t="n">
         <v>86643</v>
@@ -4502,16 +4502,16 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>2025-06-23T01:38:27Z</t>
+          <t>2025-07-02T15:38:44Z</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
-        <v>7667</v>
+        <v>8410</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5368843', 'current_grade': None, 'current_score': 96.41, 'final_grade': None, 'final_score': 32.17, 'unposted_current_score': 96.41, 'unposted_current_grade': None, 'unposted_final_score': 32.17, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5459915', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -4521,41 +4521,41 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>U46557619</t>
+          <t>U69599253</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5368843</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5459915</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>{'id': 5368843, 'name': 'Kacie Paul', 'created_at': '2024-05-24T17:04:55-04:00', 'sortable_name': 'Paul, Kacie', 'short_name': 'Kacie Paul', 'sis_user_id': 'U46557619', 'integration_id': None, 'login_id': 'kaciepaul'}</t>
+          <t>{'id': 5459915, 'name': 'Adrianna Ruiz', 'created_at': '2024-12-02T19:06:24-05:00', 'sortable_name': 'Ruiz, Adrianna', 'short_name': 'Adrianna Ruiz', 'sis_user_id': 'U69599253', 'integration_id': None, 'login_id': 'adriannaruiz'}</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>46419275</v>
+        <v>46303867</v>
       </c>
       <c r="B43" t="n">
-        <v>5264859</v>
+        <v>5445265</v>
       </c>
       <c r="C43" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4564,19 +4564,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-20T21:24:42Z</t>
+          <t>2025-05-12T23:24:32Z</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-20T21:24:42Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K43" t="n">
         <v>86643</v>
@@ -4599,16 +4599,16 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>2025-06-23T14:38:45Z</t>
+          <t>2025-07-02T13:48:07Z</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="n">
-        <v>4346</v>
+        <v>1169</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5264859', 'current_grade': None, 'current_score': 82.16, 'final_grade': None, 'final_score': 27.86, 'unposted_current_score': 82.16, 'unposted_current_grade': None, 'unposted_final_score': 27.86, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5445265', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -4618,41 +4618,41 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>U63835894</t>
+          <t>U37563843</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5264859</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5445265</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>{'id': 5264859, 'name': 'Samuel Pearson', 'created_at': '2023-10-26T21:04:18-04:00', 'sortable_name': 'Pearson, Samuel', 'short_name': 'Samuel Pearson', 'sis_user_id': 'U63835894', 'integration_id': None, 'login_id': 'spearson4'}</t>
+          <t>{'id': 5445265, 'name': 'Jacob Schoner', 'created_at': '2024-11-14T19:06:00-05:00', 'sortable_name': 'Schoner, Jacob', 'short_name': 'Jacob Schoner', 'sis_user_id': 'U37563843', 'integration_id': None, 'login_id': 'jacobschoner'}</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>45924301</v>
+        <v>46396487</v>
       </c>
       <c r="B44" t="n">
-        <v>5081859</v>
+        <v>5470105</v>
       </c>
       <c r="C44" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4661,19 +4661,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-04-14T13:27:01Z</t>
+          <t>2025-05-19T15:25:10Z</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-04-14T13:27:01Z</t>
+          <t>2025-05-19T15:25:10Z</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K44" t="n">
         <v>86643</v>
@@ -4696,16 +4696,16 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>2025-06-23T03:44:27Z</t>
+          <t>2025-07-02T15:09:56Z</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
-        <v>9252</v>
+        <v>5115</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5081859', 'current_grade': None, 'current_score': 95.83, 'final_grade': None, 'final_score': 30.83, 'unposted_current_score': 95.83, 'unposted_current_grade': None, 'unposted_final_score': 30.83, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5470105', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
@@ -4715,41 +4715,41 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>U53423096</t>
+          <t>U14290608</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5081859</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5470105</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>{'id': 5081859, 'name': 'Jennifer Pena-Cruz', 'created_at': '2022-12-06T23:47:31-05:00', 'sortable_name': 'Pena-Cruz, Jennifer', 'short_name': 'Jennifer Pena-Cruz', 'sis_user_id': 'U53423096', 'integration_id': None, 'login_id': 'jpenacruz'}</t>
+          <t>{'id': 5470105, 'name': 'Manuela Silva', 'created_at': '2024-12-17T19:08:28-05:00', 'sortable_name': 'Silva, Manuela', 'short_name': 'Manuela Silva', 'sis_user_id': 'U14290608', 'integration_id': None, 'login_id': 'manuelasilva'}</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>45995761</v>
+        <v>46637643</v>
       </c>
       <c r="B45" t="n">
-        <v>5291005</v>
+        <v>5447047</v>
       </c>
       <c r="C45" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4758,19 +4758,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-04-16T17:28:41Z</t>
+          <t>2025-06-30T21:24:19Z</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-04-16T17:28:41Z</t>
+          <t>2025-06-30T21:24:19Z</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K45" t="n">
         <v>86643</v>
@@ -4793,16 +4793,16 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>2025-06-23T13:24:47Z</t>
+          <t>2025-07-03T17:01:59Z</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>2174</v>
+        <v>3437</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5291005', 'current_grade': None, 'current_score': 85.75, 'final_grade': None, 'final_score': 30.02, 'unposted_current_score': 85.75, 'unposted_current_grade': None, 'unposted_final_score': 30.02, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5447047', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
@@ -4812,41 +4812,41 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>U27805163</t>
+          <t>U61622868</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5291005</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5447047</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>{'id': 5291005, 'name': 'Leah Phongsackdy', 'created_at': '2023-11-06T13:04:54-05:00', 'sortable_name': 'Phongsackdy, Leah', 'short_name': 'Leah Phongsackdy', 'sis_user_id': 'U27805163', 'integration_id': None, 'login_id': 'leahphongsackdy'}</t>
+          <t>{'id': 5447047, 'name': 'Charley Su', 'created_at': '2024-11-18T13:07:47-05:00', 'sortable_name': 'Su, Charley', 'short_name': 'Charley Su', 'sis_user_id': 'U61622868', 'integration_id': None, 'login_id': 'jiachensu', 'pronouns': 'he/him/his'}</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>45982197</v>
+        <v>46606823</v>
       </c>
       <c r="B46" t="n">
-        <v>5245161</v>
+        <v>5453441</v>
       </c>
       <c r="C46" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4855,19 +4855,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-04-16T13:26:49Z</t>
+          <t>2025-06-24T17:24:06Z</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-04-16T13:26:49Z</t>
+          <t>2025-06-24T17:24:06Z</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K46" t="n">
         <v>86643</v>
@@ -4890,16 +4890,16 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>2025-06-23T15:25:55Z</t>
+          <t>2025-07-03T17:07:01Z</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="n">
-        <v>20348</v>
+        <v>6655</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5245161', 'current_grade': None, 'current_score': 88.64, 'final_grade': None, 'final_score': 31.4, 'unposted_current_score': 88.64, 'unposted_current_grade': None, 'unposted_final_score': 31.4, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5453441', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 7.5, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 7.5, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
@@ -4909,41 +4909,41 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>U37583642</t>
+          <t>U78625911</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5245161</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5453441</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>{'id': 5245161, 'name': 'Diego Pizarro Santos', 'created_at': '2023-10-06T19:04:06-04:00', 'sortable_name': 'Pizarro Santos, Diego', 'short_name': 'Diego Pizarro Santos', 'sis_user_id': 'U37583642', 'integration_id': None, 'login_id': 'diegop45'}</t>
+          <t>{'id': 5453441, 'name': 'Heny Surtee', 'created_at': '2024-11-21T13:05:52-05:00', 'sortable_name': 'Surtee, Heny', 'short_name': 'Heny Surtee', 'sis_user_id': 'U78625911', 'integration_id': None, 'login_id': 'surteeh'}</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>45987563</v>
+        <v>46453263</v>
       </c>
       <c r="B47" t="n">
-        <v>5264631</v>
+        <v>5486665</v>
       </c>
       <c r="C47" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4952,19 +4952,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-04-16T15:29:21Z</t>
+          <t>2025-05-28T17:30:06Z</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-04-16T15:29:21Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K47" t="n">
         <v>86643</v>
@@ -4987,16 +4987,16 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>2025-06-13T02:14:36Z</t>
+          <t>2025-07-02T17:23:39Z</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>7059</v>
+        <v>4651</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5264631', 'current_grade': None, 'current_score': 79.55, 'final_grade': None, 'final_score': 27.03, 'unposted_current_score': 79.55, 'unposted_current_grade': None, 'unposted_final_score': 27.03, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5486665', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -5006,41 +5006,41 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>U15297659</t>
+          <t>U95838760</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5264631</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5486665</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>{'id': 5264631, 'name': 'Logan Poore', 'created_at': '2023-10-26T15:04:10-04:00', 'sortable_name': 'Poore, Logan', 'short_name': 'Logan Poore', 'sis_user_id': 'U15297659', 'integration_id': None, 'login_id': 'lbpoore'}</t>
+          <t>{'id': 5486665, 'name': 'Laura Toriello', 'created_at': '2025-01-16T11:04:53-05:00', 'sortable_name': 'Toriello, Laura', 'short_name': 'Laura Toriello', 'sis_user_id': 'U95838760', 'integration_id': None, 'login_id': 'llt144'}</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>45678061</v>
+        <v>46349733</v>
       </c>
       <c r="B48" t="n">
-        <v>4803449</v>
+        <v>5461189</v>
       </c>
       <c r="C48" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5049,19 +5049,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-03-31T21:35:01Z</t>
+          <t>2025-05-16T17:25:08Z</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-03-31T21:35:01Z</t>
+          <t>2025-05-16T17:25:08Z</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K48" t="n">
         <v>86643</v>
@@ -5084,16 +5084,16 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>2025-06-22T19:33:17Z</t>
+          <t>2025-07-02T21:27:11Z</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>7494</v>
+        <v>9761</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/4803449', 'current_grade': None, 'current_score': 68.67, 'final_grade': None, 'final_score': 25.73, 'unposted_current_score': 68.67, 'unposted_current_grade': None, 'unposted_final_score': 25.73, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5461189', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -5103,41 +5103,41 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>U39727640</t>
+          <t>U34392995</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/4803449</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5461189</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>{'id': 4803449, 'name': 'Micaela Prieto', 'created_at': '2021-10-22T12:23:51-04:00', 'sortable_name': 'Prieto, Micaela', 'short_name': 'Micaela Prieto', 'sis_user_id': 'U39727640', 'integration_id': None, 'login_id': 'micaelap'}</t>
+          <t>{'id': 5461189, 'name': 'Isabelle Whiteside', 'created_at': '2024-12-04T19:05:25-05:00', 'sortable_name': 'Whiteside, Isabelle', 'short_name': 'Isabelle Whiteside', 'sis_user_id': 'U34392995', 'integration_id': None, 'login_id': 'isabellewhiteside'}</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>45923075</v>
+        <v>46307723</v>
       </c>
       <c r="B49" t="n">
-        <v>5052305</v>
+        <v>5458119</v>
       </c>
       <c r="C49" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5146,19 +5146,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-04-14T13:26:05Z</t>
+          <t>2025-05-13T15:25:41Z</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-04-14T13:26:05Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K49" t="n">
         <v>86643</v>
@@ -5181,16 +5181,16 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>2025-06-21T18:08:37Z</t>
+          <t>2025-07-02T18:30:16Z</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="n">
-        <v>12303</v>
+        <v>5855</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5052305', 'current_grade': None, 'current_score': 93.88, 'final_grade': None, 'final_score': 28.54, 'unposted_current_score': 93.88, 'unposted_current_grade': None, 'unposted_final_score': 28.54, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5458119', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -5200,62 +5200,62 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>U31686033</t>
+          <t>U52090888</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5052305</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5458119</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>{'id': 5052305, 'name': 'Jibraeel Rahman', 'created_at': '2022-11-03T15:05:14-04:00', 'sortable_name': 'Rahman, Jibraeel', 'short_name': 'Jibraeel Rahman', 'sis_user_id': 'U31686033', 'integration_id': None, 'login_id': 'jibraeelr'}</t>
+          <t>{'id': 5458119, 'name': 'Marisa Yapello', 'created_at': '2024-11-26T17:06:06-05:00', 'sortable_name': 'Yapello, Marisa', 'short_name': 'Marisa Yapello', 'sis_user_id': 'U52090888', 'integration_id': None, 'login_id': 'myapello12'}</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>45988135</v>
+        <v>46633533</v>
       </c>
       <c r="B50" t="n">
-        <v>5259461</v>
+        <v>5551489</v>
       </c>
       <c r="C50" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>StudentViewEnrollment</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2025-04-16T15:29:38Z</t>
+          <t>2025-06-30T12:07:56Z</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-04-16T15:29:38Z</t>
+          <t>2025-06-30T12:07:56Z</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K50" t="n">
         <v>86643</v>
@@ -5278,16 +5278,16 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>2025-06-22T03:33:02Z</t>
+          <t>2025-07-02T13:43:21Z</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="n">
-        <v>25358</v>
+        <v>696</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5259461', 'current_grade': None, 'current_score': 95.1, 'final_grade': None, 'final_score': 55.34, 'unposted_current_score': 95.1, 'unposted_current_grade': None, 'unposted_final_score': 55.34, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5551489', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -5297,62 +5297,58 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>U97587853</t>
-        </is>
-      </c>
+      <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5259461</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5551489</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>{'id': 5259461, 'name': 'Anabella Ramirez', 'created_at': '2023-10-21T07:04:25-04:00', 'sortable_name': 'Ramirez, Anabella', 'short_name': 'Anabella Ramirez', 'sis_user_id': 'U97587853', 'integration_id': None, 'login_id': 'anabellaramirez'}</t>
+          <t>{'id': 5551489, 'name': 'Test Student', 'created_at': '2025-06-30T08:07:56-04:00', 'sortable_name': 'Student, Test', 'short_name': 'Test Student', 'sis_user_id': None, 'integration_id': None, 'login_id': '35938059d411f275a6b90a199562bb734b74a078'}</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>46318393</v>
+        <v>46633535</v>
       </c>
       <c r="B51" t="n">
-        <v>5371709</v>
+        <v>5551489</v>
       </c>
       <c r="C51" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>StudentViewEnrollment</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-05-14T17:25:21Z</t>
+          <t>2025-06-30T12:07:56Z</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-14T17:25:21Z</t>
+          <t>2025-06-30T12:07:56Z</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K51" t="n">
         <v>86643</v>
@@ -5375,16 +5371,16 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>2025-06-13T13:33:52Z</t>
+          <t>2025-07-02T13:43:21Z</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="n">
-        <v>1594</v>
+        <v>696</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5371709', 'current_grade': None, 'current_score': 8.82, 'final_grade': None, 'final_score': 3.25, 'unposted_current_score': 8.82, 'unposted_current_grade': None, 'unposted_final_score': 3.25, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5551489', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
@@ -5394,62 +5390,58 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>U55471043</t>
-        </is>
-      </c>
+      <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5371709</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5551489</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>{'id': 5371709, 'name': 'Joshua Ritchie', 'created_at': '2024-06-04T17:04:40-04:00', 'sortable_name': 'Ritchie, Joshua', 'short_name': 'Joshua Ritchie', 'sis_user_id': 'U55471043', 'integration_id': None, 'login_id': 'jfritchie2'}</t>
+          <t>{'id': 5551489, 'name': 'Test Student', 'created_at': '2025-06-30T08:07:56-04:00', 'sortable_name': 'Student, Test', 'short_name': 'Test Student', 'sis_user_id': None, 'integration_id': None, 'login_id': '35938059d411f275a6b90a199562bb734b74a078'}</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>46322727</v>
+        <v>46662061</v>
       </c>
       <c r="B52" t="n">
-        <v>5333367</v>
+        <v>5009103</v>
       </c>
       <c r="C52" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-05-14T23:23:46Z</t>
+          <t>2025-07-03T21:31:24Z</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-14T23:23:46Z</t>
+          <t>2025-07-03T21:31:24Z</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K52" t="n">
         <v>86643</v>
@@ -5459,31 +5451,23 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>invited</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="O52" t="n">
-        <v>7741</v>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>2025-06-23T03:15:32Z</t>
-        </is>
-      </c>
+        <v>7745</v>
+      </c>
+      <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="n">
-        <v>10138</v>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5333367', 'current_grade': None, 'current_score': 95.64, 'final_grade': None, 'final_score': 34.33, 'unposted_current_score': 95.64, 'unposted_current_grade': None, 'unposted_final_score': 34.33, 'unposted_final_grade': None}</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
           <t>BU.ISM</t>
@@ -5491,62 +5475,62 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>U15014316</t>
+          <t>U88099159</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5333367</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5009103</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>{'id': 5333367, 'name': 'Alexander Rivera-Melgar', 'created_at': '2024-02-16T09:04:30-05:00', 'sortable_name': 'Rivera-Melgar, Alexander', 'short_name': 'Alexander Rivera-Melgar', 'sis_user_id': 'U15014316', 'integration_id': None, 'login_id': 'rga1'}</t>
+          <t>{'id': 5009103, 'name': 'Mohankumar Anem', 'created_at': '2022-09-28T07:04:07-04:00', 'sortable_name': 'Anem, Mohankumar', 'short_name': 'Mohankumar Anem', 'sis_user_id': 'U88099159', 'integration_id': None, 'login_id': 'mohankumar1', 'pronouns': 'He/Him'}</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>45995593</v>
+        <v>46654045</v>
       </c>
       <c r="B53" t="n">
-        <v>5400867</v>
+        <v>4957763</v>
       </c>
       <c r="C53" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-04-16T17:28:27Z</t>
+          <t>2025-07-02T15:56:00Z</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-04-16T17:28:27Z</t>
+          <t>2025-07-02T16:57:52Z</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K53" t="n">
         <v>86643</v>
@@ -5561,26 +5545,18 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="O53" t="n">
-        <v>7741</v>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>2025-06-23T15:43:08Z</t>
-        </is>
-      </c>
+        <v>7745</v>
+      </c>
+      <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="n">
-        <v>3863</v>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5400867', 'current_grade': None, 'current_score': 87.94, 'final_grade': None, 'final_score': 31.59, 'unposted_current_score': 87.94, 'unposted_current_grade': None, 'unposted_final_score': 31.59, 'unposted_final_grade': None}</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr">
         <is>
           <t>BU.ISM</t>
@@ -5588,62 +5564,62 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>U97600182</t>
+          <t>U64219048</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5400867</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/4957763</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>{'id': 5400867, 'name': 'Jose Romero', 'created_at': '2024-08-26T11:06:41-04:00', 'sortable_name': 'Romero, Jose', 'short_name': 'Jose Romero', 'sis_user_id': 'U97600182', 'integration_id': None, 'login_id': 'joseromero1'}</t>
+          <t>{'id': 4957763, 'name': 'Andrey Martynenko', 'created_at': '2022-06-01T19:04:09-04:00', 'sortable_name': 'Martynenko, Andrey', 'short_name': 'Andrey Martynenko', 'sis_user_id': 'U64219048', 'integration_id': None, 'login_id': 'andreymartynenko'}</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>45997993</v>
+        <v>46662059</v>
       </c>
       <c r="B54" t="n">
-        <v>5263813</v>
+        <v>4876881</v>
       </c>
       <c r="C54" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-04-16T19:26:35Z</t>
+          <t>2025-07-03T21:31:24Z</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-04-16T19:26:35Z</t>
+          <t>2025-07-03T21:44:03Z</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K54" t="n">
         <v>86643</v>
@@ -5658,26 +5634,22 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="O54" t="n">
-        <v>7741</v>
+        <v>7745</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>2025-06-23T01:16:00Z</t>
+          <t>2025-07-03T22:11:56Z</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="n">
-        <v>11475</v>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5263813', 'current_grade': None, 'current_score': 95.45, 'final_grade': None, 'final_score': 37.15, 'unposted_current_score': 95.45, 'unposted_current_grade': None, 'unposted_final_score': 37.15, 'unposted_final_grade': None}</t>
-        </is>
-      </c>
+        <v>1048</v>
+      </c>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr">
         <is>
           <t>BU.ISM</t>
@@ -5685,62 +5657,62 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>U29828002</t>
+          <t>U14884292</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5263813</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/4876881</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>{'id': 5263813, 'name': 'Paul Schindler', 'created_at': '2023-10-25T13:04:20-04:00', 'sortable_name': 'Schindler, Paul', 'short_name': 'Paul Schindler', 'sis_user_id': 'U29828002', 'integration_id': None, 'login_id': 'prschindler'}</t>
+          <t>{'id': 4876881, 'name': 'Bhargav Rishi Medisetti', 'created_at': '2022-01-11T14:04:37-05:00', 'sortable_name': 'Medisetti, Bhargav Rishi', 'short_name': 'Bhargav Rishi Medisetti', 'sis_user_id': 'U14884292', 'integration_id': None, 'login_id': 'bhargavrishi'}</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>46202303</v>
+        <v>46654047</v>
       </c>
       <c r="B55" t="n">
-        <v>5328305</v>
+        <v>5106229</v>
       </c>
       <c r="C55" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-05-06T19:24:25Z</t>
+          <t>2025-07-02T15:56:00Z</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-06T19:24:25Z</t>
+          <t>2025-07-02T17:32:01Z</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K55" t="n">
         <v>86643</v>
@@ -5755,26 +5727,22 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="O55" t="n">
-        <v>7741</v>
+        <v>7745</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>2025-06-22T18:35:05Z</t>
+          <t>2025-07-02T17:32:03Z</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="n">
-        <v>10157</v>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5328305', 'current_grade': None, 'current_score': 94.09, 'final_grade': None, 'final_score': 47.07, 'unposted_current_score': 94.09, 'unposted_current_grade': None, 'unposted_final_score': 47.07, 'unposted_final_grade': None}</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr">
         <is>
           <t>BU.ISM</t>
@@ -5782,62 +5750,62 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>U99739631</t>
+          <t>U95564252</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5328305</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5106229</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>{'id': 5328305, 'name': 'Ava Schoennagel', 'created_at': '2024-02-07T09:04:40-05:00', 'sortable_name': 'Schoennagel, Ava', 'short_name': 'Ava Schoennagel', 'sis_user_id': 'U99739631', 'integration_id': None, 'login_id': 'aaschoennagel'}</t>
+          <t>{'id': 5106229, 'name': 'Sidra Riaz', 'created_at': '2023-01-08T07:04:04-05:00', 'sortable_name': 'Riaz, Sidra', 'short_name': 'Sidra Riaz', 'sis_user_id': 'U95564252', 'integration_id': None, 'login_id': 'sidrariaz'}</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>45922335</v>
+        <v>46662063</v>
       </c>
       <c r="B56" t="n">
-        <v>5258093</v>
+        <v>5061721</v>
       </c>
       <c r="C56" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2025-04-14T13:25:34Z</t>
+          <t>2025-07-03T21:31:24Z</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-04-14T13:25:34Z</t>
+          <t>2025-07-03T21:31:24Z</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K56" t="n">
         <v>86643</v>
@@ -5847,31 +5815,23 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>invited</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="O56" t="n">
-        <v>7741</v>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>2025-06-23T04:05:44Z</t>
-        </is>
-      </c>
+        <v>7745</v>
+      </c>
+      <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="n">
-        <v>15278</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5258093', 'current_grade': None, 'current_score': 94.81, 'final_grade': None, 'final_score': 37.86, 'unposted_current_score': 94.81, 'unposted_current_grade': None, 'unposted_final_score': 37.86, 'unposted_final_grade': None}</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr">
         <is>
           <t>BU.ISM</t>
@@ -5879,62 +5839,62 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>U94667177</t>
+          <t>U34561707</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5258093</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5061721</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>{'id': 5258093, 'name': 'Lily Sinclair', 'created_at': '2023-10-19T21:04:19-04:00', 'sortable_name': 'Sinclair, Lily', 'short_name': 'Lily Sinclair', 'sis_user_id': 'U94667177', 'integration_id': None, 'login_id': 'lilysinclair'}</t>
+          <t>{'id': 5061721, 'name': 'Neeraja Vedulla', 'created_at': '2022-11-10T13:04:35-05:00', 'sortable_name': 'Vedulla, Neeraja', 'short_name': 'Neeraja Vedulla', 'sis_user_id': 'U34561707', 'integration_id': None, 'login_id': 'neerajavedulla'}</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>45989619</v>
+        <v>45026349</v>
       </c>
       <c r="B57" t="n">
-        <v>5242323</v>
+        <v>964585</v>
       </c>
       <c r="C57" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TeacherEnrollment</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2025-04-16T15:30:23Z</t>
+          <t>2024-11-26T20:23:56Z</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-04-16T15:30:23Z</t>
+          <t>2024-11-26T20:23:56Z</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>2144039</v>
+        <v>2142791</v>
       </c>
       <c r="K57" t="n">
         <v>86643</v>
@@ -5949,26 +5909,22 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TeacherEnrollment</t>
         </is>
       </c>
       <c r="O57" t="n">
-        <v>7741</v>
+        <v>7743</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>2025-06-23T13:53:28Z</t>
+          <t>2025-07-03T21:31:25Z</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="n">
-        <v>27971</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5242323', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 33.33, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 33.33, 'unposted_final_grade': None}</t>
-        </is>
-      </c>
+        <v>17393</v>
+      </c>
+      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr">
         <is>
           <t>BU.ISM</t>
@@ -5976,62 +5932,62 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>U37984660</t>
+          <t>U84383097</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5242323</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/964585</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>{'id': 5242323, 'name': 'Soyoon Song', 'created_at': '2023-10-03T13:05:15-04:00', 'sortable_name': 'Song, Soyoon', 'short_name': 'Soyoon Song', 'sis_user_id': 'U37984660', 'integration_id': None, 'login_id': 'ss27'}</t>
+          <t>{'id': 964585, 'name': 'Dennis Walpole (Admin)', 'created_at': '2011-12-31T00:55:24-05:00', 'sortable_name': 'Walpole (Admin), Dennis', 'short_name': 'Dennis Walpole', 'sis_user_id': 'U84383097', 'integration_id': None, 'login_id': 'walpole'}</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>45929711</v>
+        <v>45026465</v>
       </c>
       <c r="B58" t="n">
-        <v>5042553</v>
+        <v>964585</v>
       </c>
       <c r="C58" t="n">
-        <v>1962040</v>
+        <v>1960586</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TeacherEnrollment</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2025-04-14T15:28:48Z</t>
+          <t>2024-11-26T20:24:00Z</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-04-14T15:28:48Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>2144039</v>
+        <v>2143883</v>
       </c>
       <c r="K58" t="n">
         <v>86643</v>
@@ -6046,26 +6002,22 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TeacherEnrollment</t>
         </is>
       </c>
       <c r="O58" t="n">
-        <v>7741</v>
+        <v>7743</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>2025-06-23T14:54:45Z</t>
+          <t>2025-07-03T21:31:25Z</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="n">
-        <v>16845</v>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5042553', 'current_grade': None, 'current_score': 91.45, 'final_grade': None, 'final_score': 38.08, 'unposted_current_score': 91.45, 'unposted_current_grade': None, 'unposted_final_score': 38.08, 'unposted_final_grade': None}</t>
-        </is>
-      </c>
+        <v>17393</v>
+      </c>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr">
         <is>
           <t>BU.ISM</t>
@@ -6073,1357 +6025,27 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr">
         <is>
-          <t>CGS2100.521U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>U77102472</t>
+          <t>U84383097</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5042553</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/964585</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
-        <is>
-          <t>{'id': 5042553, 'name': 'Tyler Stahler', 'created_at': '2022-10-31T07:04:39-04:00', 'sortable_name': 'Stahler, Tyler', 'short_name': 'Tyler Stahler', 'sis_user_id': 'U77102472', 'integration_id': None, 'login_id': 'tstahler'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>45841511</v>
-      </c>
-      <c r="B59" t="n">
-        <v>5385177</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1962040</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>2025-04-09T15:31:32Z</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2025-04-09T15:31:32Z</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>2144039</v>
-      </c>
-      <c r="K59" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L59" t="b">
-        <v>0</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="O59" t="n">
-        <v>7741</v>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>2025-06-23T11:46:09Z</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="n">
-        <v>18791</v>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5385177', 'current_grade': None, 'current_score': 54.67, 'final_grade': None, 'final_score': 17.89, 'unposted_current_score': 54.67, 'unposted_current_grade': None, 'unposted_final_score': 17.89, 'unposted_final_grade': None}</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>BU.ISM</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>U62709630</t>
-        </is>
-      </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5385177</t>
-        </is>
-      </c>
-      <c r="AA59" t="inlineStr">
-        <is>
-          <t>{'id': 5385177, 'name': 'Samuel Staples', 'created_at': '2024-07-19T11:11:23-04:00', 'sortable_name': 'Staples, Samuel', 'short_name': 'Samuel Staples', 'sis_user_id': 'U62709630', 'integration_id': None, 'login_id': 'staples24'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>46035263</v>
-      </c>
-      <c r="B60" t="n">
-        <v>5343251</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1962040</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>2025-04-21T05:47:21Z</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2025-04-21T05:47:21Z</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>2144039</v>
-      </c>
-      <c r="K60" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L60" t="b">
-        <v>0</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="O60" t="n">
-        <v>7741</v>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>2025-06-23T03:45:10Z</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="n">
-        <v>8968</v>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5343251', 'current_grade': None, 'current_score': 87.16, 'final_grade': None, 'final_score': 29.9, 'unposted_current_score': 87.16, 'unposted_current_grade': None, 'unposted_final_score': 29.9, 'unposted_final_grade': None}</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>BU.ISM</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>U41141717</t>
-        </is>
-      </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5343251</t>
-        </is>
-      </c>
-      <c r="AA60" t="inlineStr">
-        <is>
-          <t>{'id': 5343251, 'name': 'Alexandra Stupel', 'created_at': '2024-03-12T11:05:04-04:00', 'sortable_name': 'Stupel, Alexandra', 'short_name': 'Alexandra Stupel', 'sis_user_id': 'U41141717', 'integration_id': None, 'login_id': 'stupel'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>45990691</v>
-      </c>
-      <c r="B61" t="n">
-        <v>5277021</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1962040</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>2025-04-16T15:30:55Z</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2025-04-16T15:30:55Z</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>2144039</v>
-      </c>
-      <c r="K61" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L61" t="b">
-        <v>0</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="O61" t="n">
-        <v>7741</v>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>2025-06-23T10:35:20Z</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="n">
-        <v>7358</v>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5277021', 'current_grade': None, 'current_score': 99.33, 'final_grade': None, 'final_score': 38.53, 'unposted_current_score': 99.33, 'unposted_current_grade': None, 'unposted_final_score': 38.53, 'unposted_final_grade': None}</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>BU.ISM</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>U34164657</t>
-        </is>
-      </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5277021</t>
-        </is>
-      </c>
-      <c r="AA61" t="inlineStr">
-        <is>
-          <t>{'id': 5277021, 'name': 'Sumay Varma', 'created_at': '2023-11-01T11:04:31-04:00', 'sortable_name': 'Varma, Sumay', 'short_name': 'Sumay Varma', 'sis_user_id': 'U34164657', 'integration_id': None, 'login_id': 'sumayvarma'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>45805329</v>
-      </c>
-      <c r="B62" t="n">
-        <v>5418569</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1962040</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>2025-04-08T17:25:13Z</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>2025-04-08T17:25:13Z</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>2144039</v>
-      </c>
-      <c r="K62" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L62" t="b">
-        <v>0</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="O62" t="n">
-        <v>7741</v>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>2025-06-23T01:52:01Z</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="n">
-        <v>11091</v>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5418569', 'current_grade': None, 'current_score': 98.4, 'final_grade': None, 'final_score': 37.05, 'unposted_current_score': 98.4, 'unposted_current_grade': None, 'unposted_final_score': 37.05, 'unposted_final_grade': None}</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>BU.ISM</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr">
-        <is>
-          <t>U92055575</t>
-        </is>
-      </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5418569</t>
-        </is>
-      </c>
-      <c r="AA62" t="inlineStr">
-        <is>
-          <t>{'id': 5418569, 'name': 'Rose Vassilakos', 'created_at': '2024-10-14T13:05:30-04:00', 'sortable_name': 'Vassilakos, Rose', 'short_name': 'Rose Vassilakos', 'sis_user_id': 'U92055575', 'integration_id': None, 'login_id': 'kaylav', 'pronouns': 'she/her/hers'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>45983189</v>
-      </c>
-      <c r="B63" t="n">
-        <v>5237007</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1962040</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>2025-04-16T13:27:18Z</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2025-04-16T13:27:18Z</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>2144039</v>
-      </c>
-      <c r="K63" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L63" t="b">
-        <v>0</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="O63" t="n">
-        <v>7741</v>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>2025-06-23T13:27:08Z</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="n">
-        <v>10533</v>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5237007', 'current_grade': None, 'current_score': 99.9, 'final_grade': None, 'final_score': 49.68, 'unposted_current_score': 99.9, 'unposted_current_grade': None, 'unposted_final_score': 49.68, 'unposted_final_grade': None}</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>BU.ISM</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>U48397375</t>
-        </is>
-      </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5237007</t>
-        </is>
-      </c>
-      <c r="AA63" t="inlineStr">
-        <is>
-          <t>{'id': 5237007, 'name': 'Noelle Warren', 'created_at': '2023-09-26T15:04:12-04:00', 'sortable_name': 'Warren, Noelle', 'short_name': 'Noelle Warren', 'sis_user_id': 'U48397375', 'integration_id': None, 'login_id': 'noellew'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>45860435</v>
-      </c>
-      <c r="B64" t="n">
-        <v>5332285</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1962040</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>2025-04-09T17:26:53Z</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2025-04-09T17:26:53Z</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>2144039</v>
-      </c>
-      <c r="K64" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L64" t="b">
-        <v>0</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="O64" t="n">
-        <v>7741</v>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>2025-06-23T01:33:43Z</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="n">
-        <v>72195</v>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5332285', 'current_grade': None, 'current_score': 96.13, 'final_grade': None, 'final_score': 46.86, 'unposted_current_score': 96.13, 'unposted_current_grade': None, 'unposted_final_score': 46.86, 'unposted_final_grade': None}</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>BU.ISM</t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr">
-        <is>
-          <t>U77131121</t>
-        </is>
-      </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5332285</t>
-        </is>
-      </c>
-      <c r="AA64" t="inlineStr">
-        <is>
-          <t>{'id': 5332285, 'name': 'Aedan Whatley', 'created_at': '2024-02-13T13:04:18-05:00', 'sortable_name': 'Whatley, Aedan', 'short_name': 'Aedan Whatley', 'sis_user_id': 'U77131121', 'integration_id': None, 'login_id': 'aedanwhatley'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>45916215</v>
-      </c>
-      <c r="B65" t="n">
-        <v>5230621</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1962040</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>2025-04-14T11:48:33Z</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>2025-04-14T11:48:33Z</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>2144039</v>
-      </c>
-      <c r="K65" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L65" t="b">
-        <v>0</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="O65" t="n">
-        <v>7741</v>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>2025-06-22T17:36:25Z</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="n">
-        <v>14949</v>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5230621', 'current_grade': None, 'current_score': 98.62, 'final_grade': None, 'final_score': 50.38, 'unposted_current_score': 98.62, 'unposted_current_grade': None, 'unposted_final_score': 50.38, 'unposted_final_grade': None}</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>BU.ISM</t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>U49804919</t>
-        </is>
-      </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5230621</t>
-        </is>
-      </c>
-      <c r="AA65" t="inlineStr">
-        <is>
-          <t>{'id': 5230621, 'name': 'Poni Yung', 'created_at': '2023-09-14T11:04:14-04:00', 'sortable_name': 'Yung, Poni', 'short_name': 'Poni Yung', 'sis_user_id': 'U49804919', 'integration_id': None, 'login_id': 'poniyung'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>46394527</v>
-      </c>
-      <c r="B66" t="n">
-        <v>5537663</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1962040</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>StudentViewEnrollment</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>2025-05-19T12:16:24Z</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>2025-05-19T12:16:24Z</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>2144039</v>
-      </c>
-      <c r="K66" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L66" t="b">
-        <v>0</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>StudentEnrollment</t>
-        </is>
-      </c>
-      <c r="O66" t="n">
-        <v>7741</v>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>2025-06-18T01:02:33Z</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="n">
-        <v>980</v>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1962040/grades/5537663', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 5.0, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 5.0, 'unposted_final_grade': None}</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>BU.ISM</t>
-        </is>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5537663</t>
-        </is>
-      </c>
-      <c r="AA66" t="inlineStr">
-        <is>
-          <t>{'id': 5537663, 'name': 'Test Student', 'created_at': '2025-05-19T08:16:24-04:00', 'sortable_name': 'Student, Test', 'short_name': 'Test Student', 'sis_user_id': None, 'integration_id': None, 'login_id': '11f49bec120169f3709d0b9bfdf43452ca5bd318'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>46437617</v>
-      </c>
-      <c r="B67" t="n">
-        <v>5009103</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1962040</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>TaEnrollment</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>2025-05-23T14:45:31Z</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>2025-05-25T14:52:12Z</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>2144039</v>
-      </c>
-      <c r="K67" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L67" t="b">
-        <v>0</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>TaEnrollment</t>
-        </is>
-      </c>
-      <c r="O67" t="n">
-        <v>7745</v>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>2025-06-23T15:53:03Z</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="n">
-        <v>915</v>
-      </c>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>BU.ISM</t>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr">
-        <is>
-          <t>U88099159</t>
-        </is>
-      </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5009103</t>
-        </is>
-      </c>
-      <c r="AA67" t="inlineStr">
-        <is>
-          <t>{'id': 5009103, 'name': 'Mohankumar Anem', 'created_at': '2022-09-28T07:04:07-04:00', 'sortable_name': 'Anem, Mohankumar', 'short_name': 'Mohankumar Anem', 'sis_user_id': 'U88099159', 'integration_id': None, 'login_id': 'mohankumar1', 'pronouns': 'He/Him'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>46396957</v>
-      </c>
-      <c r="B68" t="n">
-        <v>4957763</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1962040</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>TaEnrollment</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>2025-05-19T16:54:16Z</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>2025-05-19T17:50:42Z</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>2144039</v>
-      </c>
-      <c r="K68" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L68" t="b">
-        <v>0</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>TaEnrollment</t>
-        </is>
-      </c>
-      <c r="O68" t="n">
-        <v>7745</v>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>2025-06-23T04:21:35Z</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="n">
-        <v>1970</v>
-      </c>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>BU.ISM</t>
-        </is>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr">
-        <is>
-          <t>U64219048</t>
-        </is>
-      </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/4957763</t>
-        </is>
-      </c>
-      <c r="AA68" t="inlineStr">
-        <is>
-          <t>{'id': 4957763, 'name': 'Andrey Martynenko', 'created_at': '2022-06-01T19:04:09-04:00', 'sortable_name': 'Martynenko, Andrey', 'short_name': 'Andrey Martynenko', 'sis_user_id': 'U64219048', 'integration_id': None, 'login_id': 'andreymartynenko'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>46437615</v>
-      </c>
-      <c r="B69" t="n">
-        <v>4876881</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1962040</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>TaEnrollment</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>2025-05-23T14:45:31Z</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>2025-05-23T14:45:40Z</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>2144039</v>
-      </c>
-      <c r="K69" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L69" t="b">
-        <v>0</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>TaEnrollment</t>
-        </is>
-      </c>
-      <c r="O69" t="n">
-        <v>7745</v>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>2025-06-02T05:37:32Z</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="n">
-        <v>1081</v>
-      </c>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>BU.ISM</t>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t>U14884292</t>
-        </is>
-      </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/4876881</t>
-        </is>
-      </c>
-      <c r="AA69" t="inlineStr">
-        <is>
-          <t>{'id': 4876881, 'name': 'Bhargav Rishi Medisetti', 'created_at': '2022-01-11T14:04:37-05:00', 'sortable_name': 'Medisetti, Bhargav Rishi', 'short_name': 'Bhargav Rishi Medisetti', 'sis_user_id': 'U14884292', 'integration_id': None, 'login_id': 'bhargavrishi'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>46396959</v>
-      </c>
-      <c r="B70" t="n">
-        <v>5106229</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1962040</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>TaEnrollment</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>2025-05-19T16:54:16Z</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>2025-05-19T16:54:38Z</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>2144039</v>
-      </c>
-      <c r="K70" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L70" t="b">
-        <v>0</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>TaEnrollment</t>
-        </is>
-      </c>
-      <c r="O70" t="n">
-        <v>7745</v>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>2025-06-23T01:36:22Z</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="n">
-        <v>10399</v>
-      </c>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>BU.ISM</t>
-        </is>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr">
-        <is>
-          <t>U95564252</t>
-        </is>
-      </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5106229</t>
-        </is>
-      </c>
-      <c r="AA70" t="inlineStr">
-        <is>
-          <t>{'id': 5106229, 'name': 'Sidra Riaz', 'created_at': '2023-01-08T07:04:04-05:00', 'sortable_name': 'Riaz, Sidra', 'short_name': 'Sidra Riaz', 'sis_user_id': 'U95564252', 'integration_id': None, 'login_id': 'sidrariaz'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>46437619</v>
-      </c>
-      <c r="B71" t="n">
-        <v>5061721</v>
-      </c>
-      <c r="C71" t="n">
-        <v>1962040</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>TaEnrollment</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>2025-05-23T14:45:31Z</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2025-05-23T15:06:43Z</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>2144039</v>
-      </c>
-      <c r="K71" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L71" t="b">
-        <v>0</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>TaEnrollment</t>
-        </is>
-      </c>
-      <c r="O71" t="n">
-        <v>7745</v>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>2025-05-23T15:06:44Z</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="n">
-        <v>0</v>
-      </c>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>BU.ISM</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr">
-        <is>
-          <t>U34561707</t>
-        </is>
-      </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/5061721</t>
-        </is>
-      </c>
-      <c r="AA71" t="inlineStr">
-        <is>
-          <t>{'id': 5061721, 'name': 'Neeraja Vedulla', 'created_at': '2022-11-10T13:04:35-05:00', 'sortable_name': 'Vedulla, Neeraja', 'short_name': 'Neeraja Vedulla', 'sis_user_id': 'U34561707', 'integration_id': None, 'login_id': 'neerajavedulla'}</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>45492107</v>
-      </c>
-      <c r="B72" t="n">
-        <v>964585</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1962040</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>TeacherEnrollment</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>2025-01-31T18:23:40Z</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>2025-01-31T18:23:40Z</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>2144039</v>
-      </c>
-      <c r="K72" t="n">
-        <v>86643</v>
-      </c>
-      <c r="L72" t="b">
-        <v>0</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>TeacherEnrollment</t>
-        </is>
-      </c>
-      <c r="O72" t="n">
-        <v>7743</v>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>2025-06-23T01:34:57Z</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="n">
-        <v>81417</v>
-      </c>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>BU.ISM</t>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>CGS2100.521U25</t>
-        </is>
-      </c>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr">
-        <is>
-          <t>U84383097</t>
-        </is>
-      </c>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>https://usflearn.instructure.com/courses/1962040/users/964585</t>
-        </is>
-      </c>
-      <c r="AA72" t="inlineStr">
         <is>
           <t>{'id': 964585, 'name': 'Dennis Walpole (Admin)', 'created_at': '2011-12-31T00:55:24-05:00', 'sortable_name': 'Walpole (Admin), Dennis', 'short_name': 'Dennis Walpole', 'sis_user_id': 'U84383097', 'integration_id': None, 'login_id': 'walpole'}</t>
         </is>
